--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -585,7 +585,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>73345</v>
+        <v>66219</v>
       </c>
       <c r="T2" t="n">
-        <v>5641.968500000001</v>
+        <v>4978.75</v>
       </c>
       <c r="U2" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3">
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>70281</v>
+        <v>64309</v>
       </c>
       <c r="T3" t="n">
-        <v>5490.19275</v>
+        <v>4881.803465346536</v>
       </c>
       <c r="U3" t="n">
         <v>45000</v>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
         <v>1.61152052238806</v>
@@ -694,7 +694,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="n">
         <v>1.588996002902687</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>67715</v>
+        <v>62149</v>
       </c>
       <c r="T4" t="n">
-        <v>5406.366</v>
+        <v>4806.189603960396</v>
       </c>
       <c r="U4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
         <v>1.61152052238806</v>
@@ -759,7 +759,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="n">
         <v>1.588996002902687</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>65991</v>
+        <v>60657</v>
       </c>
       <c r="T5" t="n">
-        <v>5371.681</v>
+        <v>4777.004455445544</v>
       </c>
       <c r="U5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
         <v>1.61152052238806</v>
@@ -824,7 +824,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J6" t="n">
         <v>1.588996002902687</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>67561</v>
+        <v>62958</v>
       </c>
       <c r="T6" t="n">
-        <v>5318.97625</v>
+        <v>4817.022277227723</v>
       </c>
       <c r="U6" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
         <v>1.61152052238806</v>
@@ -889,7 +889,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="n">
         <v>1.588996002902687</v>
@@ -919,13 +919,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>71292</v>
+        <v>65273</v>
       </c>
       <c r="T7" t="n">
-        <v>5408.019749999999</v>
+        <v>4993.585148514851</v>
       </c>
       <c r="U7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C8" t="n">
         <v>1.61152052238806</v>
@@ -954,7 +954,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="n">
         <v>1.588996002902687</v>
@@ -984,13 +984,13 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>69587</v>
+        <v>64219</v>
       </c>
       <c r="T8" t="n">
-        <v>5902.232</v>
+        <v>5791.976732673267</v>
       </c>
       <c r="U8" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -1040,7 +1040,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1049,19 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>80654</v>
+        <v>62558</v>
       </c>
       <c r="T9" t="n">
-        <v>7337.83225</v>
+        <v>6508.679702970297</v>
       </c>
       <c r="U9" t="n">
-        <v>45000</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3822.612708333334</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.473578526505999</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10">
@@ -1111,7 +1105,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1120,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>8121</v>
+        <v>92325</v>
       </c>
       <c r="T10" t="n">
-        <v>8426.187000000002</v>
+        <v>8013.319306930694</v>
       </c>
       <c r="U10" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -1184,8 +1178,11 @@
       <c r="R11" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S11" t="n">
+        <v>104189</v>
+      </c>
       <c r="T11" t="n">
-        <v>13930.83825</v>
+        <v>13327.75396039604</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1246,8 +1243,11 @@
       <c r="R12" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S12" t="n">
+        <v>87429</v>
+      </c>
       <c r="T12" t="n">
-        <v>15876.8085</v>
+        <v>14912.39801980198</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1308,8 +1308,11 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S13" t="n">
+        <v>88764</v>
+      </c>
       <c r="T13" t="n">
-        <v>15790.39175</v>
+        <v>14866.84603960396</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1370,8 +1373,11 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S14" t="n">
+        <v>69428</v>
+      </c>
       <c r="T14" t="n">
-        <v>15707.13375</v>
+        <v>15166.13415841584</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1432,11 +1438,20 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>56205</v>
+      </c>
       <c r="T15" t="n">
-        <v>15725.78525</v>
+        <v>15342.26732673267</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8358.014380555554</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3.466049730643063</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1510,7 @@
         <v>6.1814</v>
       </c>
       <c r="T16" t="n">
-        <v>15851.95675</v>
+        <v>15647.49851485148</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1557,7 +1572,7 @@
         <v>6.1814</v>
       </c>
       <c r="T17" t="n">
-        <v>16175.89925</v>
+        <v>15775.31782178218</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1619,7 +1634,7 @@
         <v>6.1814</v>
       </c>
       <c r="T18" t="n">
-        <v>16564.009</v>
+        <v>16246.4004950495</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
@@ -1681,7 +1696,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16344.52925</v>
+        <v>15938.57376237624</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1743,7 +1758,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15734.6105</v>
+        <v>15549.6094059406</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1805,7 +1820,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13838.8285</v>
+        <v>13984.29504950495</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1867,7 +1882,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12297.75575</v>
+        <v>12412.51089108911</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1929,7 +1944,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9867.945500000002</v>
+        <v>9434.527227722774</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -1991,7 +2006,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6893.563249999999</v>
+        <v>6390.105940594059</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2053,7 +2068,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>6008.644249999999</v>
+        <v>5462.339108910891</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -585,7 +585,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>66219</v>
+        <v>68377</v>
       </c>
       <c r="T2" t="n">
-        <v>4978.75</v>
+        <v>5373.441499999999</v>
       </c>
       <c r="U2" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
         <v>1.61152052238806</v>
@@ -629,7 +629,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="n">
         <v>1.588996002902687</v>
@@ -659,13 +659,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>64309</v>
+        <v>65754</v>
       </c>
       <c r="T3" t="n">
-        <v>4881.803465346536</v>
+        <v>5250.357</v>
       </c>
       <c r="U3" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>62149</v>
+        <v>63452</v>
       </c>
       <c r="T4" t="n">
-        <v>4806.189603960396</v>
+        <v>5171.886999999999</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>60657</v>
+        <v>61778</v>
       </c>
       <c r="T5" t="n">
-        <v>4777.004455445544</v>
+        <v>5107.980499999999</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>62958</v>
+        <v>63701</v>
       </c>
       <c r="T6" t="n">
-        <v>4817.022277227723</v>
+        <v>5104.393</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>65273</v>
+        <v>66921</v>
       </c>
       <c r="T7" t="n">
-        <v>4993.585148514851</v>
+        <v>5230.476999999999</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>64219</v>
+        <v>65559</v>
       </c>
       <c r="T8" t="n">
-        <v>5791.976732673267</v>
+        <v>5902.879499999999</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1040,7 +1040,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1049,13 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>62558</v>
+        <v>77302</v>
       </c>
       <c r="T9" t="n">
-        <v>6508.679702970297</v>
+        <v>7037.001999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -1114,10 +1114,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>92325</v>
+        <v>94353</v>
       </c>
       <c r="T10" t="n">
-        <v>8013.319306930694</v>
+        <v>8592.440500000001</v>
       </c>
       <c r="U10" t="n">
         <v>65000</v>
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>104189</v>
+        <v>84696</v>
       </c>
       <c r="T11" t="n">
-        <v>13327.75396039604</v>
+        <v>14095.0215</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1244,13 +1244,19 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>87429</v>
+        <v>105351</v>
       </c>
       <c r="T12" t="n">
-        <v>14912.39801980198</v>
+        <v>15828.8445</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5997.667411111111</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.478505529195085</v>
       </c>
     </row>
     <row r="13">
@@ -1309,10 +1315,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>88764</v>
+        <v>106616</v>
       </c>
       <c r="T13" t="n">
-        <v>14866.84603960396</v>
+        <v>15449.287</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1374,10 +1380,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>69428</v>
+        <v>105965</v>
       </c>
       <c r="T14" t="n">
-        <v>15166.13415841584</v>
+        <v>15803.2595</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1438,20 +1444,11 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>56205</v>
-      </c>
       <c r="T15" t="n">
-        <v>15342.26732673267</v>
+        <v>15862.028</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>8358.014380555554</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3.466049730643063</v>
       </c>
     </row>
     <row r="16">
@@ -1510,7 +1507,7 @@
         <v>6.1814</v>
       </c>
       <c r="T16" t="n">
-        <v>15647.49851485148</v>
+        <v>16032.3205</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1572,7 +1569,7 @@
         <v>6.1814</v>
       </c>
       <c r="T17" t="n">
-        <v>15775.31782178218</v>
+        <v>16559.4275</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,7 +1631,7 @@
         <v>6.1814</v>
       </c>
       <c r="T18" t="n">
-        <v>16246.4004950495</v>
+        <v>16683.57249999999</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
@@ -1696,7 +1693,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>15938.57376237624</v>
+        <v>16252.82049999999</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1758,7 +1755,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15549.6094059406</v>
+        <v>15546.958</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1820,7 +1817,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13984.29504950495</v>
+        <v>13748.4165</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1882,7 +1879,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12412.51089108911</v>
+        <v>12030.7215</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1944,7 +1941,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9434.527227722774</v>
+        <v>9319.645999999999</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2006,7 +2003,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6390.105940594059</v>
+        <v>6308.333499999995</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2059,7 +2056,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2068,10 +2065,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5462.339108910891</v>
+        <v>5687.261999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>65000</v>
+        <v>57000</v>
       </c>
     </row>
   </sheetData>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1179,7 +1179,7 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>84696</v>
+        <v>103695</v>
       </c>
       <c r="T11" t="n">
         <v>14095.0215</v>
@@ -1244,7 +1244,7 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>105351</v>
+        <v>107380</v>
       </c>
       <c r="T12" t="n">
         <v>15828.8445</v>
@@ -1256,7 +1256,7 @@
         <v>5997.667411111111</v>
       </c>
       <c r="W12" t="n">
-        <v>5.478505529195085</v>
+        <v>5.490011440318267</v>
       </c>
     </row>
     <row r="13">

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1252,12 +1252,6 @@
       <c r="U12" t="n">
         <v>65000</v>
       </c>
-      <c r="V12" t="n">
-        <v>5997.667411111111</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5.490011440318267</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1315,7 +1309,7 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>106616</v>
+        <v>108706</v>
       </c>
       <c r="T13" t="n">
         <v>15449.287</v>
@@ -1380,7 +1374,7 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>105965</v>
+        <v>108006</v>
       </c>
       <c r="T14" t="n">
         <v>15803.2595</v>
@@ -1444,6 +1438,9 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>83578</v>
+      </c>
       <c r="T15" t="n">
         <v>15862.028</v>
       </c>
@@ -1506,6 +1503,9 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S16" t="n">
+        <v>83212</v>
+      </c>
       <c r="T16" t="n">
         <v>16032.3205</v>
       </c>
@@ -1568,11 +1568,20 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S17" t="n">
+        <v>79873</v>
+      </c>
       <c r="T17" t="n">
         <v>16559.4275</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>10288.05435277778</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.14931981160349</v>
       </c>
     </row>
     <row r="18">

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1639,6 +1639,9 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S18" t="n">
+        <v>44109</v>
+      </c>
       <c r="T18" t="n">
         <v>16683.57249999999</v>
       </c>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>68377</v>
+        <v>78805</v>
       </c>
       <c r="T2" t="n">
-        <v>5373.441499999999</v>
+        <v>5569.423999999999</v>
       </c>
       <c r="U2" t="n">
         <v>45000</v>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C3" t="n">
         <v>1.61152052238806</v>
@@ -629,7 +629,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J3" t="n">
         <v>1.588996002902687</v>
@@ -659,13 +659,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>65754</v>
+        <v>74694</v>
       </c>
       <c r="T3" t="n">
-        <v>5250.357</v>
+        <v>5443.025</v>
       </c>
       <c r="U3" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
         <v>1.61152052238806</v>
@@ -694,7 +694,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J4" t="n">
         <v>1.588996002902687</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>63452</v>
+        <v>71872</v>
       </c>
       <c r="T4" t="n">
-        <v>5171.886999999999</v>
+        <v>5335.7675</v>
       </c>
       <c r="U4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
         <v>1.61152052238806</v>
@@ -759,7 +759,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J5" t="n">
         <v>1.588996002902687</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>61778</v>
+        <v>68930</v>
       </c>
       <c r="T5" t="n">
-        <v>5107.980499999999</v>
+        <v>5326.111</v>
       </c>
       <c r="U5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
         <v>1.61152052238806</v>
@@ -824,7 +824,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J6" t="n">
         <v>1.588996002902687</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>63701</v>
+        <v>68060</v>
       </c>
       <c r="T6" t="n">
-        <v>5104.393</v>
+        <v>5353.5615</v>
       </c>
       <c r="U6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
         <v>1.61152052238806</v>
@@ -889,7 +889,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J7" t="n">
         <v>1.588996002902687</v>
@@ -919,13 +919,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>66921</v>
+        <v>68909</v>
       </c>
       <c r="T7" t="n">
-        <v>5230.476999999999</v>
+        <v>5400.717</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>65559</v>
+        <v>68628</v>
       </c>
       <c r="T8" t="n">
-        <v>5902.879499999999</v>
+        <v>5986.228500000001</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
         <v>1.61152052238806</v>
@@ -1049,13 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>77302</v>
+        <v>77034</v>
       </c>
       <c r="T9" t="n">
-        <v>7037.001999999999</v>
+        <v>6774.907999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="10">
@@ -1105,7 +1105,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>94353</v>
+        <v>72266</v>
       </c>
       <c r="T10" t="n">
-        <v>8592.440500000001</v>
+        <v>8159.217500000001</v>
       </c>
       <c r="U10" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11">
@@ -1170,7 +1170,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>103695</v>
+        <v>80854</v>
       </c>
       <c r="T11" t="n">
-        <v>14095.0215</v>
+        <v>13111.5495</v>
       </c>
       <c r="U11" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="12">
@@ -1244,13 +1244,19 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>107380</v>
+        <v>58218</v>
       </c>
       <c r="T12" t="n">
-        <v>15828.8445</v>
+        <v>15041.6385</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4169.784166666666</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.845143498794034</v>
       </c>
     </row>
     <row r="13">
@@ -1308,11 +1314,8 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S13" t="n">
-        <v>108706</v>
-      </c>
       <c r="T13" t="n">
-        <v>15449.287</v>
+        <v>15360.8175</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1373,11 +1376,8 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S14" t="n">
-        <v>108006</v>
-      </c>
       <c r="T14" t="n">
-        <v>15803.2595</v>
+        <v>15438.7275</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1438,11 +1438,8 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>83578</v>
-      </c>
       <c r="T15" t="n">
-        <v>15862.028</v>
+        <v>15496.474</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1503,11 +1500,8 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S16" t="n">
-        <v>83212</v>
-      </c>
       <c r="T16" t="n">
-        <v>16032.3205</v>
+        <v>15736.574</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1568,20 +1562,11 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S17" t="n">
-        <v>79873</v>
-      </c>
       <c r="T17" t="n">
-        <v>16559.4275</v>
+        <v>16203.3305</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
-      </c>
-      <c r="V17" t="n">
-        <v>10288.05435277778</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.14931981160349</v>
       </c>
     </row>
     <row r="18">
@@ -1639,11 +1624,8 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S18" t="n">
-        <v>44109</v>
-      </c>
       <c r="T18" t="n">
-        <v>16683.57249999999</v>
+        <v>16035.0225</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
@@ -1705,7 +1687,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16252.82049999999</v>
+        <v>15489.1135</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1767,7 +1749,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15546.958</v>
+        <v>15075.4555</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1829,7 +1811,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13748.4165</v>
+        <v>13277.7365</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1891,7 +1873,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12030.7215</v>
+        <v>11738.566</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1953,7 +1935,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9319.645999999999</v>
+        <v>8937.529999999999</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2015,7 +1997,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6308.333499999995</v>
+        <v>5960.1675</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2068,7 +2050,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2077,10 +2059,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5687.261999999999</v>
+        <v>5052.110000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>57000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -585,7 +585,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>78805</v>
+        <v>78622</v>
       </c>
       <c r="T2" t="n">
-        <v>5569.423999999999</v>
+        <v>5444.512500000001</v>
       </c>
       <c r="U2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="3">
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>74694</v>
+        <v>75199</v>
       </c>
       <c r="T3" t="n">
-        <v>5443.025</v>
+        <v>5387.3435</v>
       </c>
       <c r="U3" t="n">
         <v>45000</v>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
         <v>1.61152052238806</v>
@@ -694,7 +694,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="n">
         <v>1.588996002902687</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>71872</v>
+        <v>69820</v>
       </c>
       <c r="T4" t="n">
-        <v>5335.7675</v>
+        <v>5357.2225</v>
       </c>
       <c r="U4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
         <v>1.61152052238806</v>
@@ -759,7 +759,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="n">
         <v>1.588996002902687</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>68930</v>
+        <v>69709</v>
       </c>
       <c r="T5" t="n">
-        <v>5326.111</v>
+        <v>5289.154500000001</v>
       </c>
       <c r="U5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
         <v>1.61152052238806</v>
@@ -824,7 +824,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J6" t="n">
         <v>1.588996002902687</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>68060</v>
+        <v>69148</v>
       </c>
       <c r="T6" t="n">
-        <v>5353.5615</v>
+        <v>5361.8285</v>
       </c>
       <c r="U6" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
         <v>1.61152052238806</v>
@@ -889,7 +889,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="n">
         <v>1.588996002902687</v>
@@ -919,13 +919,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>68909</v>
+        <v>71026</v>
       </c>
       <c r="T7" t="n">
-        <v>5400.717</v>
+        <v>5442.6015</v>
       </c>
       <c r="U7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>68628</v>
+        <v>69369</v>
       </c>
       <c r="T8" t="n">
-        <v>5986.228500000001</v>
+        <v>5816.530999999999</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1019,7 +1019,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="n">
         <v>1.588996002902687</v>
@@ -1049,13 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>77034</v>
+        <v>83438</v>
       </c>
       <c r="T9" t="n">
-        <v>6774.907999999999</v>
+        <v>7034.6115</v>
       </c>
       <c r="U9" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -1105,7 +1105,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>72266</v>
+        <v>67948</v>
       </c>
       <c r="T10" t="n">
-        <v>8159.217500000001</v>
+        <v>8596.6895</v>
       </c>
       <c r="U10" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -1170,7 +1170,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1178,14 +1178,11 @@
       <c r="R11" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S11" t="n">
-        <v>80854</v>
-      </c>
       <c r="T11" t="n">
-        <v>13111.5495</v>
+        <v>13942.873</v>
       </c>
       <c r="U11" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -1243,20 +1240,11 @@
       <c r="R12" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S12" t="n">
-        <v>58218</v>
-      </c>
       <c r="T12" t="n">
-        <v>15041.6385</v>
+        <v>15769.3095</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4169.784166666666</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5.845143498794034</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1303,7 @@
         <v>6.1814</v>
       </c>
       <c r="T13" t="n">
-        <v>15360.8175</v>
+        <v>15209.229</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1377,7 +1365,7 @@
         <v>6.1814</v>
       </c>
       <c r="T14" t="n">
-        <v>15438.7275</v>
+        <v>15159.795</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1439,7 +1427,7 @@
         <v>6.1814</v>
       </c>
       <c r="T15" t="n">
-        <v>15496.474</v>
+        <v>15449.4445</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1501,7 +1489,7 @@
         <v>6.1814</v>
       </c>
       <c r="T16" t="n">
-        <v>15736.574</v>
+        <v>15588.433</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1563,7 +1551,7 @@
         <v>6.1814</v>
       </c>
       <c r="T17" t="n">
-        <v>16203.3305</v>
+        <v>16020.6585</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1625,7 +1613,7 @@
         <v>6.1814</v>
       </c>
       <c r="T18" t="n">
-        <v>16035.0225</v>
+        <v>16262.3825</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
@@ -1687,7 +1675,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>15489.1135</v>
+        <v>15862.609</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1749,7 +1737,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15075.4555</v>
+        <v>14887.418</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1811,7 +1799,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13277.7365</v>
+        <v>13341.0375</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1873,7 +1861,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>11738.566</v>
+        <v>11837.672</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1935,7 +1923,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>8937.529999999999</v>
+        <v>9490.991999999998</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -1997,7 +1985,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>5960.1675</v>
+        <v>6891.794</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2050,7 +2038,7 @@
         <v>3.237463885484072</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2059,10 +2047,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5052.110000000001</v>
+        <v>5770.9715</v>
       </c>
       <c r="U25" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1114,7 +1114,7 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>67948</v>
+        <v>100294</v>
       </c>
       <c r="T10" t="n">
         <v>8596.6895</v>
@@ -1178,6 +1178,9 @@
       <c r="R11" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S11" t="n">
+        <v>110135</v>
+      </c>
       <c r="T11" t="n">
         <v>13942.873</v>
       </c>
@@ -1240,6 +1243,9 @@
       <c r="R12" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S12" t="n">
+        <v>117510</v>
+      </c>
       <c r="T12" t="n">
         <v>15769.3095</v>
       </c>
@@ -1302,6 +1308,9 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S13" t="n">
+        <v>119307</v>
+      </c>
       <c r="T13" t="n">
         <v>15209.229</v>
       </c>
@@ -1364,6 +1373,9 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S14" t="n">
+        <v>114772</v>
+      </c>
       <c r="T14" t="n">
         <v>15159.795</v>
       </c>
@@ -1426,6 +1438,9 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>121362</v>
+      </c>
       <c r="T15" t="n">
         <v>15449.4445</v>
       </c>
@@ -1488,6 +1503,9 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S16" t="n">
+        <v>118637</v>
+      </c>
       <c r="T16" t="n">
         <v>15588.433</v>
       </c>
@@ -1550,11 +1568,20 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S17" t="n">
+        <v>119164</v>
+      </c>
       <c r="T17" t="n">
         <v>16020.6585</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>22756.36967777778</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11.74458625542382</v>
       </c>
     </row>
     <row r="18">

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>78622</v>
+        <v>72751</v>
       </c>
       <c r="T2" t="n">
-        <v>5444.512500000001</v>
+        <v>5281.5630294</v>
       </c>
       <c r="U2" t="n">
         <v>65000</v>
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>75199</v>
+        <v>69982</v>
       </c>
       <c r="T3" t="n">
-        <v>5387.3435</v>
+        <v>5219.513573399999</v>
       </c>
       <c r="U3" t="n">
         <v>45000</v>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
         <v>1.61152052238806</v>
@@ -694,7 +694,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J4" t="n">
         <v>1.588996002902687</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>69820</v>
+        <v>67349</v>
       </c>
       <c r="T4" t="n">
-        <v>5357.2225</v>
+        <v>5215.409715599999</v>
       </c>
       <c r="U4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
         <v>1.61152052238806</v>
@@ -759,7 +759,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J5" t="n">
         <v>1.588996002902687</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>69709</v>
+        <v>65122</v>
       </c>
       <c r="T5" t="n">
-        <v>5289.154500000001</v>
+        <v>5203.961154000001</v>
       </c>
       <c r="U5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
         <v>1.61152052238806</v>
@@ -824,7 +824,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J6" t="n">
         <v>1.588996002902687</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>69148</v>
+        <v>66310</v>
       </c>
       <c r="T6" t="n">
-        <v>5361.8285</v>
+        <v>5197.191791400001</v>
       </c>
       <c r="U6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
         <v>1.61152052238806</v>
@@ -889,7 +889,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J7" t="n">
         <v>1.588996002902687</v>
@@ -919,13 +919,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>71026</v>
+        <v>68884</v>
       </c>
       <c r="T7" t="n">
-        <v>5442.6015</v>
+        <v>5340.65931</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>69369</v>
+        <v>68972</v>
       </c>
       <c r="T8" t="n">
-        <v>5816.530999999999</v>
+        <v>5690.484966600001</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
         <v>1.61152052238806</v>
@@ -1019,7 +1019,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J9" t="n">
         <v>1.588996002902687</v>
@@ -1049,13 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>83438</v>
+        <v>84176</v>
       </c>
       <c r="T9" t="n">
-        <v>7034.6115</v>
+        <v>7243.272603</v>
       </c>
       <c r="U9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -1114,10 +1114,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>100294</v>
+        <v>80621</v>
       </c>
       <c r="T10" t="n">
-        <v>8596.6895</v>
+        <v>8810.345451599998</v>
       </c>
       <c r="U10" t="n">
         <v>65000</v>
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>110135</v>
+        <v>112781</v>
       </c>
       <c r="T11" t="n">
-        <v>13942.873</v>
+        <v>13845.818</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>117510</v>
+        <v>121213</v>
       </c>
       <c r="T12" t="n">
-        <v>15769.3095</v>
+        <v>15425.6935</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1309,10 +1309,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>119307</v>
+        <v>117324</v>
       </c>
       <c r="T13" t="n">
-        <v>15209.229</v>
+        <v>15935.46969</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1374,10 +1374,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>114772</v>
+        <v>118070</v>
       </c>
       <c r="T14" t="n">
-        <v>15159.795</v>
+        <v>15980.34459</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>121362</v>
+        <v>122483</v>
       </c>
       <c r="T15" t="n">
-        <v>15449.4445</v>
+        <v>16006.18068</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>118637</v>
+        <v>121970</v>
       </c>
       <c r="T16" t="n">
-        <v>15588.433</v>
+        <v>16129.67055</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,19 +1569,13 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>119164</v>
+        <v>103896</v>
       </c>
       <c r="T17" t="n">
-        <v>16020.6585</v>
+        <v>16259.57571</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
-      </c>
-      <c r="V17" t="n">
-        <v>22756.36967777778</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11.74458625542382</v>
       </c>
     </row>
     <row r="18">
@@ -1639,11 +1633,20 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S18" t="n">
+        <v>18802</v>
+      </c>
       <c r="T18" t="n">
-        <v>16262.3825</v>
+        <v>16450.07448</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6164.089866666668</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-18.19635430831311</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1705,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>15862.609</v>
+        <v>16258.20126</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1764,7 +1767,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>14887.418</v>
+        <v>15318.55227</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1826,7 +1829,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13341.0375</v>
+        <v>13705.95114</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1888,7 +1891,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>11837.672</v>
+        <v>12047.14707</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1950,7 +1953,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9490.991999999998</v>
+        <v>9638.00397</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2012,7 +2015,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6891.794</v>
+        <v>6839.395290000001</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2074,7 +2077,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5770.9715</v>
+        <v>5959.954350000001</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>72751</v>
+        <v>78971</v>
       </c>
       <c r="T2" t="n">
-        <v>5281.5630294</v>
+        <v>5623.7055</v>
       </c>
       <c r="U2" t="n">
         <v>65000</v>
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>69982</v>
+        <v>75703</v>
       </c>
       <c r="T3" t="n">
-        <v>5219.513573399999</v>
+        <v>5458.229</v>
       </c>
       <c r="U3" t="n">
         <v>45000</v>
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>67349</v>
+        <v>72637</v>
       </c>
       <c r="T4" t="n">
-        <v>5215.409715599999</v>
+        <v>5507.9745</v>
       </c>
       <c r="U4" t="n">
         <v>45000</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>65122</v>
+        <v>70071</v>
       </c>
       <c r="T5" t="n">
-        <v>5203.961154000001</v>
+        <v>5475.498</v>
       </c>
       <c r="U5" t="n">
         <v>45000</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>66310</v>
+        <v>70844</v>
       </c>
       <c r="T6" t="n">
-        <v>5197.191791400001</v>
+        <v>5469.52</v>
       </c>
       <c r="U6" t="n">
         <v>45000</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>68884</v>
+        <v>73558</v>
       </c>
       <c r="T7" t="n">
-        <v>5340.65931</v>
+        <v>5575.703</v>
       </c>
       <c r="U7" t="n">
         <v>45000</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>68972</v>
+        <v>73509</v>
       </c>
       <c r="T8" t="n">
-        <v>5690.484966600001</v>
+        <v>6141.8735</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>84176</v>
+        <v>86371</v>
       </c>
       <c r="T9" t="n">
-        <v>7243.272603</v>
+        <v>7163.6355</v>
       </c>
       <c r="U9" t="n">
         <v>45000</v>
@@ -1114,10 +1114,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>80621</v>
+        <v>103822</v>
       </c>
       <c r="T10" t="n">
-        <v>8810.345451599998</v>
+        <v>8647.460500000001</v>
       </c>
       <c r="U10" t="n">
         <v>65000</v>
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>112781</v>
+        <v>94388</v>
       </c>
       <c r="T11" t="n">
-        <v>13845.818</v>
+        <v>12435.7905</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>121213</v>
+        <v>97098</v>
       </c>
       <c r="T12" t="n">
-        <v>15425.6935</v>
+        <v>15471.022</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1309,10 +1309,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>117324</v>
+        <v>97310</v>
       </c>
       <c r="T13" t="n">
-        <v>15935.46969</v>
+        <v>16384.8475</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1374,10 +1374,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>118070</v>
+        <v>97015</v>
       </c>
       <c r="T14" t="n">
-        <v>15980.34459</v>
+        <v>16062.228</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>122483</v>
+        <v>123772</v>
       </c>
       <c r="T15" t="n">
-        <v>16006.18068</v>
+        <v>16185.204</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>121970</v>
+        <v>122973</v>
       </c>
       <c r="T16" t="n">
-        <v>16129.67055</v>
+        <v>16525.544</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>103896</v>
+        <v>82093</v>
       </c>
       <c r="T17" t="n">
-        <v>16259.57571</v>
+        <v>16462.6175</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,19 +1634,19 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>18802</v>
+        <v>56814</v>
       </c>
       <c r="T18" t="n">
-        <v>16450.07448</v>
+        <v>16761.7275</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
       </c>
       <c r="V18" t="n">
-        <v>6164.089866666668</v>
+        <v>8856.747052777779</v>
       </c>
       <c r="W18" t="n">
-        <v>-18.19635430831311</v>
+        <v>3.056410319552653</v>
       </c>
     </row>
     <row r="19">
@@ -1705,7 +1705,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16258.20126</v>
+        <v>16532.1625</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1767,7 +1767,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15318.55227</v>
+        <v>15890.3885</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1829,7 +1829,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13705.95114</v>
+        <v>13683.775</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1891,7 +1891,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12047.14707</v>
+        <v>11966.283</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1953,7 +1953,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9638.00397</v>
+        <v>9398.494000000001</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2015,7 +2015,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6839.395290000001</v>
+        <v>6574.9635</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2077,7 +2077,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5959.954350000001</v>
+        <v>5831.934499999999</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -567,22 +567,22 @@
         <v>20000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K2" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L2" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M2" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N2" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O2" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P2" t="n">
         <v>20000</v>
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>78971</v>
+        <v>81702</v>
       </c>
       <c r="T2" t="n">
-        <v>5623.7055</v>
+        <v>5581.919</v>
       </c>
       <c r="U2" t="n">
         <v>65000</v>
@@ -632,22 +632,22 @@
         <v>20000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K3" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L3" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M3" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N3" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O3" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>75703</v>
+        <v>77188</v>
       </c>
       <c r="T3" t="n">
-        <v>5458.229</v>
+        <v>5396.9405</v>
       </c>
       <c r="U3" t="n">
         <v>45000</v>
@@ -697,22 +697,22 @@
         <v>20000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K4" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L4" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M4" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N4" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O4" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>72637</v>
+        <v>73895</v>
       </c>
       <c r="T4" t="n">
-        <v>5507.9745</v>
+        <v>5495.0525</v>
       </c>
       <c r="U4" t="n">
         <v>45000</v>
@@ -762,22 +762,22 @@
         <v>20000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K5" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L5" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M5" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N5" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O5" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>70071</v>
+        <v>71440</v>
       </c>
       <c r="T5" t="n">
-        <v>5475.498</v>
+        <v>5434.544500000001</v>
       </c>
       <c r="U5" t="n">
         <v>45000</v>
@@ -827,22 +827,22 @@
         <v>20000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K6" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L6" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M6" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N6" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O6" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>70844</v>
+        <v>71537</v>
       </c>
       <c r="T6" t="n">
-        <v>5469.52</v>
+        <v>5428.478999999999</v>
       </c>
       <c r="U6" t="n">
         <v>45000</v>
@@ -892,22 +892,22 @@
         <v>20000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K7" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L7" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M7" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N7" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O7" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>73558</v>
+        <v>74078</v>
       </c>
       <c r="T7" t="n">
-        <v>5575.703</v>
+        <v>5521.411</v>
       </c>
       <c r="U7" t="n">
         <v>45000</v>
@@ -957,22 +957,22 @@
         <v>10000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K8" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L8" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M8" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N8" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O8" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>73509</v>
+        <v>73085</v>
       </c>
       <c r="T8" t="n">
-        <v>6141.8735</v>
+        <v>5848.6295</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1022,22 +1022,22 @@
         <v>20000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K9" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L9" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M9" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N9" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O9" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>86371</v>
+        <v>85878</v>
       </c>
       <c r="T9" t="n">
-        <v>7163.6355</v>
+        <v>7409.1955</v>
       </c>
       <c r="U9" t="n">
         <v>45000</v>
@@ -1087,22 +1087,22 @@
         <v>20000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K10" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L10" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M10" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N10" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O10" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P10" t="n">
         <v>20000</v>
@@ -1114,10 +1114,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>103822</v>
+        <v>103546</v>
       </c>
       <c r="T10" t="n">
-        <v>8647.460500000001</v>
+        <v>8747.119500000001</v>
       </c>
       <c r="U10" t="n">
         <v>65000</v>
@@ -1152,22 +1152,22 @@
         <v>20000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K11" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L11" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M11" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N11" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O11" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P11" t="n">
         <v>20000</v>
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>94388</v>
+        <v>118632</v>
       </c>
       <c r="T11" t="n">
-        <v>12435.7905</v>
+        <v>13859.2475</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1217,22 +1217,22 @@
         <v>20000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K12" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L12" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M12" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N12" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O12" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P12" t="n">
         <v>20000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>97098</v>
+        <v>97381</v>
       </c>
       <c r="T12" t="n">
-        <v>15471.022</v>
+        <v>15630.083</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1282,22 +1282,22 @@
         <v>20000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K13" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L13" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M13" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N13" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O13" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P13" t="n">
         <v>20000</v>
@@ -1309,10 +1309,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>97310</v>
+        <v>97506</v>
       </c>
       <c r="T13" t="n">
-        <v>16384.8475</v>
+        <v>15508.171</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1347,22 +1347,22 @@
         <v>20000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K14" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L14" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M14" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N14" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O14" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P14" t="n">
         <v>20000</v>
@@ -1374,10 +1374,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>97015</v>
+        <v>121129</v>
       </c>
       <c r="T14" t="n">
-        <v>16062.228</v>
+        <v>15504.7795</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1412,22 +1412,22 @@
         <v>20000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K15" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L15" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M15" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N15" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O15" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P15" t="n">
         <v>20000</v>
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>123772</v>
+        <v>111713</v>
       </c>
       <c r="T15" t="n">
-        <v>16185.204</v>
+        <v>15740.2385</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1477,22 +1477,22 @@
         <v>20000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K16" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L16" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M16" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N16" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O16" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P16" t="n">
         <v>20000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>122973</v>
+        <v>109913</v>
       </c>
       <c r="T16" t="n">
-        <v>16525.544</v>
+        <v>15821.344</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1542,22 +1542,22 @@
         <v>20000</v>
       </c>
       <c r="J17" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K17" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L17" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M17" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N17" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O17" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P17" t="n">
         <v>20000</v>
@@ -1569,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>82093</v>
+        <v>117876</v>
       </c>
       <c r="T17" t="n">
-        <v>16462.6175</v>
+        <v>15962.3415</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1607,22 +1607,22 @@
         <v>20000</v>
       </c>
       <c r="J18" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K18" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L18" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M18" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N18" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O18" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P18" t="n">
         <v>20000</v>
@@ -1634,19 +1634,19 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>56814</v>
+        <v>96505</v>
       </c>
       <c r="T18" t="n">
-        <v>16761.7275</v>
+        <v>16427.5545</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
       </c>
       <c r="V18" t="n">
-        <v>8856.747052777779</v>
+        <v>10289.27624444444</v>
       </c>
       <c r="W18" t="n">
-        <v>3.056410319552653</v>
+        <v>6.216634135120763</v>
       </c>
     </row>
     <row r="19">
@@ -1678,22 +1678,22 @@
         <v>20000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K19" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L19" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M19" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N19" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O19" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P19" t="n">
         <v>20000</v>
@@ -1705,7 +1705,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16532.1625</v>
+        <v>16271.78</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1740,22 +1740,22 @@
         <v>20000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K20" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L20" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M20" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N20" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O20" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P20" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15890.3885</v>
+        <v>15553.594</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1802,22 +1802,22 @@
         <v>20000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K21" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L21" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M21" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N21" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O21" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P21" t="n">
         <v>20000</v>
@@ -1829,7 +1829,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13683.775</v>
+        <v>13684.776</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1864,22 +1864,22 @@
         <v>20000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K22" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L22" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M22" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N22" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O22" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P22" t="n">
         <v>20000</v>
@@ -1891,7 +1891,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>11966.283</v>
+        <v>12055.652</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1926,22 +1926,22 @@
         <v>20000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K23" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L23" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M23" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N23" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O23" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P23" t="n">
         <v>20000</v>
@@ -1953,7 +1953,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9398.494000000001</v>
+        <v>9556.389499999999</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -1988,22 +1988,22 @@
         <v>20000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K24" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L24" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M24" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N24" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O24" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P24" t="n">
         <v>20000</v>
@@ -2015,7 +2015,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6574.9635</v>
+        <v>6528.8335</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2050,22 +2050,22 @@
         <v>20000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.588996002902687</v>
+        <v>1.581239010443103</v>
       </c>
       <c r="K25" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="L25" t="n">
-        <v>1.633196002902688</v>
+        <v>1.625439010443103</v>
       </c>
       <c r="M25" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="N25" t="n">
-        <v>1.611096002902688</v>
+        <v>1.603339010443103</v>
       </c>
       <c r="O25" t="n">
-        <v>3.237463885484072</v>
+        <v>3.210435294886339</v>
       </c>
       <c r="P25" t="n">
         <v>20000</v>
@@ -2077,7 +2077,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5831.934499999999</v>
+        <v>5841.465</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>81702</v>
+        <v>76517</v>
       </c>
       <c r="T2" t="n">
-        <v>5581.919</v>
+        <v>5403.181792229516</v>
       </c>
       <c r="U2" t="n">
         <v>65000</v>
@@ -650,7 +650,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>77188</v>
+        <v>72824</v>
       </c>
       <c r="T3" t="n">
-        <v>5396.9405</v>
+        <v>5278.963850951805</v>
       </c>
       <c r="U3" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="4">
@@ -715,7 +715,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>73895</v>
+        <v>70097</v>
       </c>
       <c r="T4" t="n">
-        <v>5495.0525</v>
+        <v>5184.064927655845</v>
       </c>
       <c r="U4" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="5">
@@ -780,7 +780,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>71440</v>
+        <v>67810</v>
       </c>
       <c r="T5" t="n">
-        <v>5434.544500000001</v>
+        <v>5136.549907955236</v>
       </c>
       <c r="U5" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
         <v>1.61152052238806</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>71537</v>
+        <v>70206</v>
       </c>
       <c r="T6" t="n">
-        <v>5428.478999999999</v>
+        <v>5129.7719337361</v>
       </c>
       <c r="U6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
         <v>1.61152052238806</v>
@@ -889,7 +889,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="n">
         <v>1.581239010443103</v>
@@ -919,13 +919,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>74078</v>
+        <v>64915</v>
       </c>
       <c r="T7" t="n">
-        <v>5521.411</v>
+        <v>5143.13849224455</v>
       </c>
       <c r="U7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>73085</v>
+        <v>63530</v>
       </c>
       <c r="T8" t="n">
-        <v>5848.6295</v>
+        <v>5818.040433500224</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
         <v>1.61152052238806</v>
@@ -1019,7 +1019,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="n">
         <v>1.581239010443103</v>
@@ -1049,13 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>85878</v>
+        <v>68946</v>
       </c>
       <c r="T9" t="n">
-        <v>7409.1955</v>
+        <v>6499.70213840486</v>
       </c>
       <c r="U9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
         <v>1.61152052238806</v>
@@ -1084,7 +1084,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J10" t="n">
         <v>1.581239010443103</v>
@@ -1105,7 +1105,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>103546</v>
+        <v>73677</v>
       </c>
       <c r="T10" t="n">
-        <v>8747.119500000001</v>
+        <v>7901.680536594761</v>
       </c>
       <c r="U10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
         <v>1.61152052238806</v>
@@ -1170,7 +1170,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>118632</v>
+        <v>84977</v>
       </c>
       <c r="T11" t="n">
-        <v>13859.2475</v>
+        <v>13514.69019060903</v>
       </c>
       <c r="U11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
@@ -1235,7 +1235,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>97381</v>
+        <v>89747</v>
       </c>
       <c r="T12" t="n">
-        <v>15630.083</v>
+        <v>15633.91644990992</v>
       </c>
       <c r="U12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="13">
@@ -1300,7 +1300,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>97506</v>
+        <v>91611</v>
       </c>
       <c r="T13" t="n">
-        <v>15508.171</v>
+        <v>15567.09641022996</v>
       </c>
       <c r="U13" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14">
@@ -1365,7 +1365,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>121129</v>
+        <v>93598</v>
       </c>
       <c r="T14" t="n">
-        <v>15504.7795</v>
+        <v>15766.55339272752</v>
       </c>
       <c r="U14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="15">
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>111713</v>
+        <v>98785</v>
       </c>
       <c r="T15" t="n">
-        <v>15740.2385</v>
+        <v>15912.72896354587</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>109913</v>
+        <v>100081</v>
       </c>
       <c r="T16" t="n">
-        <v>15821.344</v>
+        <v>16136.85567434339</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>117876</v>
+        <v>95263</v>
       </c>
       <c r="T17" t="n">
-        <v>15962.3415</v>
+        <v>16644.07866334462</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,19 +1634,13 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>96505</v>
+        <v>96824</v>
       </c>
       <c r="T18" t="n">
-        <v>16427.5545</v>
+        <v>16694.97483924541</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
-      </c>
-      <c r="V18" t="n">
-        <v>10289.27624444444</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6.216634135120763</v>
       </c>
     </row>
     <row r="19">
@@ -1704,8 +1698,11 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S19" t="n">
+        <v>95537</v>
+      </c>
       <c r="T19" t="n">
-        <v>16271.78</v>
+        <v>16392.60347814709</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1766,8 +1763,11 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S20" t="n">
+        <v>95992</v>
+      </c>
       <c r="T20" t="n">
-        <v>15553.594</v>
+        <v>15677.69035636025</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1828,8 +1828,11 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S21" t="n">
+        <v>94905</v>
+      </c>
       <c r="T21" t="n">
-        <v>13684.776</v>
+        <v>14143.01405219119</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1890,8 +1893,11 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S22" t="n">
+        <v>94570</v>
+      </c>
       <c r="T22" t="n">
-        <v>12055.652</v>
+        <v>12333.28142343908</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1952,8 +1958,11 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S23" t="n">
+        <v>70374</v>
+      </c>
       <c r="T23" t="n">
-        <v>9556.389499999999</v>
+        <v>9480.206819321584</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2014,8 +2023,11 @@
       <c r="R24" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S24" t="n">
+        <v>47771</v>
+      </c>
       <c r="T24" t="n">
-        <v>6528.8335</v>
+        <v>6243.876406472426</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2077,7 +2089,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5841.465</v>
+        <v>5337.237675511805</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>76517</v>
+        <v>74809</v>
       </c>
       <c r="T2" t="n">
-        <v>5403.181792229516</v>
+        <v>5689.726000000001</v>
       </c>
       <c r="U2" t="n">
         <v>65000</v>
@@ -650,7 +650,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>72824</v>
+        <v>71872</v>
       </c>
       <c r="T3" t="n">
-        <v>5278.963850951805</v>
+        <v>5531.9635</v>
       </c>
       <c r="U3" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -715,7 +715,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>70097</v>
+        <v>68791</v>
       </c>
       <c r="T4" t="n">
-        <v>5184.064927655845</v>
+        <v>5582.9375</v>
       </c>
       <c r="U4" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -780,7 +780,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>67810</v>
+        <v>66462</v>
       </c>
       <c r="T5" t="n">
-        <v>5136.549907955236</v>
+        <v>5518.562</v>
       </c>
       <c r="U5" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
         <v>1.61152052238806</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>70206</v>
+        <v>67369</v>
       </c>
       <c r="T6" t="n">
-        <v>5129.7719337361</v>
+        <v>5473.3875</v>
       </c>
       <c r="U6" t="n">
-        <v>32500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
         <v>1.61152052238806</v>
@@ -889,7 +889,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J7" t="n">
         <v>1.581239010443103</v>
@@ -919,13 +919,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>64915</v>
+        <v>69937</v>
       </c>
       <c r="T7" t="n">
-        <v>5143.13849224455</v>
+        <v>5589.052</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>63530</v>
+        <v>70192</v>
       </c>
       <c r="T8" t="n">
-        <v>5818.040433500224</v>
+        <v>6206.172</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
         <v>1.61152052238806</v>
@@ -1019,7 +1019,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J9" t="n">
         <v>1.581239010443103</v>
@@ -1049,13 +1049,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>68946</v>
+        <v>85051</v>
       </c>
       <c r="T9" t="n">
-        <v>6499.70213840486</v>
+        <v>7243.6665</v>
       </c>
       <c r="U9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
         <v>1.61152052238806</v>
@@ -1084,7 +1084,7 @@
         <v>3.299387206889056</v>
       </c>
       <c r="I10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J10" t="n">
         <v>1.581239010443103</v>
@@ -1105,7 +1105,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>73677</v>
+        <v>102213</v>
       </c>
       <c r="T10" t="n">
-        <v>7901.680536594761</v>
+        <v>8885.4745</v>
       </c>
       <c r="U10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
         <v>1.61152052238806</v>
@@ -1170,7 +1170,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>84977</v>
+        <v>113425</v>
       </c>
       <c r="T11" t="n">
-        <v>13514.69019060903</v>
+        <v>13767.1835</v>
       </c>
       <c r="U11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -1235,7 +1235,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>89747</v>
+        <v>117989</v>
       </c>
       <c r="T12" t="n">
-        <v>15633.91644990992</v>
+        <v>16394.5425</v>
       </c>
       <c r="U12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -1300,7 +1300,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>91611</v>
+        <v>118146</v>
       </c>
       <c r="T13" t="n">
-        <v>15567.09641022996</v>
+        <v>16601.9735</v>
       </c>
       <c r="U13" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14">
@@ -1365,7 +1365,7 @@
         <v>3.210435294886339</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>93598</v>
+        <v>117787</v>
       </c>
       <c r="T14" t="n">
-        <v>15766.55339272752</v>
+        <v>16136.57733333333</v>
       </c>
       <c r="U14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15">
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>98785</v>
+        <v>123132</v>
       </c>
       <c r="T15" t="n">
-        <v>15912.72896354587</v>
+        <v>16181.1125</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>100081</v>
+        <v>125170</v>
       </c>
       <c r="T16" t="n">
-        <v>16136.85567434339</v>
+        <v>16478.651</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>95263</v>
+        <v>123443</v>
       </c>
       <c r="T17" t="n">
-        <v>16644.07866334462</v>
+        <v>16626.0535</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,13 +1634,19 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>96824</v>
+        <v>119718</v>
       </c>
       <c r="T18" t="n">
-        <v>16694.97483924541</v>
+        <v>16821.924</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>19993.46870555556</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10.69380127681324</v>
       </c>
     </row>
     <row r="19">
@@ -1698,11 +1704,8 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S19" t="n">
-        <v>95537</v>
-      </c>
       <c r="T19" t="n">
-        <v>16392.60347814709</v>
+        <v>16713.2315</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1763,11 +1766,8 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S20" t="n">
-        <v>95992</v>
-      </c>
       <c r="T20" t="n">
-        <v>15677.69035636025</v>
+        <v>16263.632</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1828,11 +1828,8 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S21" t="n">
-        <v>94905</v>
-      </c>
       <c r="T21" t="n">
-        <v>14143.01405219119</v>
+        <v>13980.50966666666</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1893,11 +1890,8 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S22" t="n">
-        <v>94570</v>
-      </c>
       <c r="T22" t="n">
-        <v>12333.28142343908</v>
+        <v>12278.59266666667</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1958,11 +1952,8 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S23" t="n">
-        <v>70374</v>
-      </c>
       <c r="T23" t="n">
-        <v>9480.206819321584</v>
+        <v>9696.488666666666</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2023,11 +2014,8 @@
       <c r="R24" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S24" t="n">
-        <v>47771</v>
-      </c>
       <c r="T24" t="n">
-        <v>6243.876406472426</v>
+        <v>6635.017666666667</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2089,7 +2077,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5337.237675511805</v>
+        <v>6040.419000000001</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -594,10 +594,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>74809</v>
+        <v>79320</v>
       </c>
       <c r="T2" t="n">
-        <v>5689.726000000001</v>
+        <v>5367.6475</v>
       </c>
       <c r="U2" t="n">
         <v>65000</v>
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>71872</v>
+        <v>75071</v>
       </c>
       <c r="T3" t="n">
-        <v>5531.9635</v>
+        <v>5238.613499999999</v>
       </c>
       <c r="U3" t="n">
         <v>45000</v>
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>68791</v>
+        <v>71835</v>
       </c>
       <c r="T4" t="n">
-        <v>5582.9375</v>
+        <v>5194.5815</v>
       </c>
       <c r="U4" t="n">
         <v>45000</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>66462</v>
+        <v>65483</v>
       </c>
       <c r="T5" t="n">
-        <v>5518.562</v>
+        <v>5174.980500000001</v>
       </c>
       <c r="U5" t="n">
         <v>45000</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>67369</v>
+        <v>49690</v>
       </c>
       <c r="T6" t="n">
-        <v>5473.3875</v>
+        <v>5228.214</v>
       </c>
       <c r="U6" t="n">
         <v>45000</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>69937</v>
+        <v>47776</v>
       </c>
       <c r="T7" t="n">
-        <v>5589.052</v>
+        <v>5465.2305</v>
       </c>
       <c r="U7" t="n">
         <v>45000</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>70192</v>
+        <v>48551</v>
       </c>
       <c r="T8" t="n">
-        <v>6206.172</v>
+        <v>6478.023</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>85051</v>
+        <v>61821</v>
       </c>
       <c r="T9" t="n">
-        <v>7243.6665</v>
+        <v>7287.380499999999</v>
       </c>
       <c r="U9" t="n">
         <v>45000</v>
@@ -1114,10 +1114,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>102213</v>
+        <v>77677</v>
       </c>
       <c r="T10" t="n">
-        <v>8885.4745</v>
+        <v>9017.842499999999</v>
       </c>
       <c r="U10" t="n">
         <v>65000</v>
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>113425</v>
+        <v>84702</v>
       </c>
       <c r="T11" t="n">
-        <v>13767.1835</v>
+        <v>14472.567</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>117989</v>
+        <v>72561</v>
       </c>
       <c r="T12" t="n">
-        <v>16394.5425</v>
+        <v>16357.7465</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1309,13 +1309,19 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>118146</v>
+        <v>74015</v>
       </c>
       <c r="T13" t="n">
-        <v>16601.9735</v>
+        <v>16558.8255</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4817.55768888889</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.331600432210391</v>
       </c>
     </row>
     <row r="14">
@@ -1374,10 +1380,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>117787</v>
+        <v>6611</v>
       </c>
       <c r="T14" t="n">
-        <v>16136.57733333333</v>
+        <v>16733.4465</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1438,11 +1444,8 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>123132</v>
-      </c>
       <c r="T15" t="n">
-        <v>16181.1125</v>
+        <v>16967.0395</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1503,11 +1506,8 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S16" t="n">
-        <v>125170</v>
-      </c>
       <c r="T16" t="n">
-        <v>16478.651</v>
+        <v>16689.1605</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1568,11 +1568,8 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S17" t="n">
-        <v>123443</v>
-      </c>
       <c r="T17" t="n">
-        <v>16626.0535</v>
+        <v>16402.6835</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1633,20 +1630,11 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S18" t="n">
-        <v>119718</v>
-      </c>
       <c r="T18" t="n">
-        <v>16821.924</v>
+        <v>16404.992</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
-      </c>
-      <c r="V18" t="n">
-        <v>19993.46870555556</v>
-      </c>
-      <c r="W18" t="n">
-        <v>10.69380127681324</v>
       </c>
     </row>
     <row r="19">
@@ -1705,7 +1693,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16713.2315</v>
+        <v>16482.6715</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1767,7 +1755,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>16263.632</v>
+        <v>16346.816</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1829,7 +1817,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13980.50966666666</v>
+        <v>14102.174</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1891,7 +1879,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12278.59266666667</v>
+        <v>12417.102</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1953,7 +1941,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9696.488666666666</v>
+        <v>9745.787</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2015,7 +2003,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6635.017666666667</v>
+        <v>6739.6595</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2077,7 +2065,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>6040.419000000001</v>
+        <v>5949.048500000001</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -789,7 +789,7 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>65483</v>
+        <v>69162</v>
       </c>
       <c r="T5" t="n">
         <v>5174.980500000001</v>
@@ -854,7 +854,7 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>49690</v>
+        <v>69265</v>
       </c>
       <c r="T6" t="n">
         <v>5228.214</v>
@@ -1049,7 +1049,7 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>61821</v>
+        <v>78606</v>
       </c>
       <c r="T9" t="n">
         <v>7287.380499999999</v>
@@ -1114,7 +1114,7 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>77677</v>
+        <v>97689</v>
       </c>
       <c r="T10" t="n">
         <v>9017.842499999999</v>
@@ -1179,7 +1179,7 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>84702</v>
+        <v>106884</v>
       </c>
       <c r="T11" t="n">
         <v>14472.567</v>
@@ -1244,7 +1244,7 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>72561</v>
+        <v>116889</v>
       </c>
       <c r="T12" t="n">
         <v>16357.7465</v>
@@ -1309,19 +1309,13 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>74015</v>
+        <v>118659</v>
       </c>
       <c r="T13" t="n">
         <v>16558.8255</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4817.55768888889</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5.331600432210391</v>
       </c>
     </row>
     <row r="14">
@@ -1380,7 +1374,7 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>6611</v>
+        <v>124076</v>
       </c>
       <c r="T14" t="n">
         <v>16733.4465</v>
@@ -1444,6 +1438,9 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>123610</v>
+      </c>
       <c r="T15" t="n">
         <v>16967.0395</v>
       </c>
@@ -1506,6 +1503,9 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S16" t="n">
+        <v>123474</v>
+      </c>
       <c r="T16" t="n">
         <v>16689.1605</v>
       </c>
@@ -1568,6 +1568,9 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S17" t="n">
+        <v>107183</v>
+      </c>
       <c r="T17" t="n">
         <v>16402.6835</v>
       </c>
@@ -1630,11 +1633,20 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S18" t="n">
+        <v>102324</v>
+      </c>
       <c r="T18" t="n">
         <v>16404.992</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24513.04350555555</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9.95664117229544</v>
       </c>
     </row>
     <row r="19">

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -545,11 +545,59 @@
       <c r="B2" t="n">
         <v>25000</v>
       </c>
+      <c r="C2" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I2" t="n">
         <v>20000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.156522770432628</v>
       </c>
       <c r="P2" t="n">
         <v>15000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S2" t="n">
+        <v>67078</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5554.7135</v>
       </c>
       <c r="U2" t="n">
         <v>60000</v>
@@ -562,11 +610,59 @@
       <c r="B3" t="n">
         <v>25000</v>
       </c>
+      <c r="C3" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I3" t="n">
         <v>20000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.156522770432628</v>
       </c>
       <c r="P3" t="n">
         <v>10000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S3" t="n">
+        <v>64200</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5359.343500000001</v>
       </c>
       <c r="U3" t="n">
         <v>55000</v>
@@ -579,11 +675,59 @@
       <c r="B4" t="n">
         <v>25000</v>
       </c>
+      <c r="C4" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I4" t="n">
         <v>20000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.156522770432628</v>
       </c>
       <c r="P4" t="n">
         <v>5000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S4" t="n">
+        <v>62248</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5311.7505</v>
       </c>
       <c r="U4" t="n">
         <v>50000</v>
@@ -596,11 +740,59 @@
       <c r="B5" t="n">
         <v>25000</v>
       </c>
+      <c r="C5" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I5" t="n">
         <v>20000</v>
       </c>
+      <c r="J5" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P5" t="n">
         <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S5" t="n">
+        <v>60861</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5299.952</v>
       </c>
       <c r="U5" t="n">
         <v>45000</v>
@@ -613,11 +805,59 @@
       <c r="B6" t="n">
         <v>25000</v>
       </c>
+      <c r="C6" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I6" t="n">
         <v>20000</v>
       </c>
+      <c r="J6" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P6" t="n">
         <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S6" t="n">
+        <v>55982</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5293.1515</v>
       </c>
       <c r="U6" t="n">
         <v>45000</v>
@@ -630,11 +870,59 @@
       <c r="B7" t="n">
         <v>12500</v>
       </c>
+      <c r="C7" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I7" t="n">
         <v>10000</v>
       </c>
+      <c r="J7" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P7" t="n">
         <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S7" t="n">
+        <v>61100</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5324.76</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -647,11 +935,59 @@
       <c r="B8" t="n">
         <v>12500</v>
       </c>
+      <c r="C8" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I8" t="n">
         <v>10000</v>
       </c>
+      <c r="J8" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P8" t="n">
         <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S8" t="n">
+        <v>61451</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6198.4755</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -664,11 +1000,59 @@
       <c r="B9" t="n">
         <v>12500</v>
       </c>
+      <c r="C9" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I9" t="n">
         <v>10000</v>
       </c>
+      <c r="J9" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P9" t="n">
         <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S9" t="n">
+        <v>65951</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6632.370499999999</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -681,11 +1065,59 @@
       <c r="B10" t="n">
         <v>12500</v>
       </c>
+      <c r="C10" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I10" t="n">
         <v>10000</v>
       </c>
+      <c r="J10" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P10" t="n">
         <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S10" t="n">
+        <v>75046</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7985.929</v>
       </c>
       <c r="U10" t="n">
         <v>22500</v>
@@ -698,11 +1130,59 @@
       <c r="B11" t="n">
         <v>12500</v>
       </c>
+      <c r="C11" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I11" t="n">
         <v>10000</v>
       </c>
+      <c r="J11" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P11" t="n">
         <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S11" t="n">
+        <v>84778</v>
+      </c>
+      <c r="T11" t="n">
+        <v>13162.0615</v>
       </c>
       <c r="U11" t="n">
         <v>22500</v>
@@ -715,11 +1195,59 @@
       <c r="B12" t="n">
         <v>25000</v>
       </c>
+      <c r="C12" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I12" t="n">
         <v>20000</v>
       </c>
+      <c r="J12" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P12" t="n">
         <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S12" t="n">
+        <v>87637</v>
+      </c>
+      <c r="T12" t="n">
+        <v>15499.911</v>
       </c>
       <c r="U12" t="n">
         <v>45000</v>
@@ -732,11 +1260,59 @@
       <c r="B13" t="n">
         <v>25000</v>
       </c>
+      <c r="C13" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I13" t="n">
         <v>20000</v>
       </c>
+      <c r="J13" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P13" t="n">
         <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S13" t="n">
+        <v>88210</v>
+      </c>
+      <c r="T13" t="n">
+        <v>15978.718</v>
       </c>
       <c r="U13" t="n">
         <v>45000</v>
@@ -749,11 +1325,59 @@
       <c r="B14" t="n">
         <v>25000</v>
       </c>
+      <c r="C14" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I14" t="n">
         <v>20000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.156522770432628</v>
       </c>
       <c r="P14" t="n">
         <v>10000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S14" t="n">
+        <v>90838</v>
+      </c>
+      <c r="T14" t="n">
+        <v>15949.85</v>
       </c>
       <c r="U14" t="n">
         <v>55000</v>
@@ -766,11 +1390,59 @@
       <c r="B15" t="n">
         <v>25000</v>
       </c>
+      <c r="C15" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I15" t="n">
         <v>20000</v>
       </c>
+      <c r="J15" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P15" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S15" t="n">
+        <v>94152</v>
+      </c>
+      <c r="T15" t="n">
+        <v>16112.4845</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -783,11 +1455,59 @@
       <c r="B16" t="n">
         <v>25000</v>
       </c>
+      <c r="C16" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I16" t="n">
         <v>20000</v>
       </c>
+      <c r="J16" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P16" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S16" t="n">
+        <v>96251</v>
+      </c>
+      <c r="T16" t="n">
+        <v>16701.4645</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -800,11 +1520,59 @@
       <c r="B17" t="n">
         <v>25000</v>
       </c>
+      <c r="C17" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I17" t="n">
         <v>20000</v>
       </c>
+      <c r="J17" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P17" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S17" t="n">
+        <v>96983</v>
+      </c>
+      <c r="T17" t="n">
+        <v>16519.7305</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -817,11 +1585,59 @@
       <c r="B18" t="n">
         <v>25000</v>
       </c>
+      <c r="C18" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I18" t="n">
         <v>20000</v>
       </c>
+      <c r="J18" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P18" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S18" t="n">
+        <v>95154</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16574.537</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
@@ -834,11 +1650,59 @@
       <c r="B19" t="n">
         <v>25000</v>
       </c>
+      <c r="C19" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I19" t="n">
         <v>20000</v>
       </c>
+      <c r="J19" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P19" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S19" t="n">
+        <v>98298</v>
+      </c>
+      <c r="T19" t="n">
+        <v>16188.1545</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -851,11 +1715,59 @@
       <c r="B20" t="n">
         <v>25000</v>
       </c>
+      <c r="C20" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I20" t="n">
         <v>20000</v>
       </c>
+      <c r="J20" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P20" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S20" t="n">
+        <v>94420</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15598.3275</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -868,11 +1780,59 @@
       <c r="B21" t="n">
         <v>25000</v>
       </c>
+      <c r="C21" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I21" t="n">
         <v>20000</v>
       </c>
+      <c r="J21" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P21" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S21" t="n">
+        <v>92856</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14119.9695</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -885,11 +1845,59 @@
       <c r="B22" t="n">
         <v>25000</v>
       </c>
+      <c r="C22" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I22" t="n">
         <v>20000</v>
       </c>
+      <c r="J22" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P22" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S22" t="n">
+        <v>88965</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12189.1525</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -902,14 +1910,68 @@
       <c r="B23" t="n">
         <v>25000</v>
       </c>
+      <c r="C23" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I23" t="n">
         <v>20000</v>
       </c>
+      <c r="J23" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P23" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S23" t="n">
+        <v>42562</v>
+      </c>
+      <c r="T23" t="n">
+        <v>9406.733</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5315.04841388889</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5.163568972588152</v>
       </c>
     </row>
     <row r="24">
@@ -919,11 +1981,56 @@
       <c r="B24" t="n">
         <v>25000</v>
       </c>
+      <c r="C24" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I24" t="n">
         <v>20000</v>
       </c>
+      <c r="J24" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P24" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6502.2755</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -936,11 +2043,56 @@
       <c r="B25" t="n">
         <v>25000</v>
       </c>
+      <c r="C25" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.256321305319241</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.614467350746269</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.256321305319241</v>
+      </c>
       <c r="I25" t="n">
         <v>20000</v>
       </c>
+      <c r="J25" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.156522770432628</v>
+      </c>
       <c r="P25" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5603.15</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -585,7 +585,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>67078</v>
+        <v>72056</v>
       </c>
       <c r="T2" t="n">
-        <v>5554.7135</v>
+        <v>5516.6335</v>
       </c>
       <c r="U2" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -650,7 +650,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>64200</v>
+        <v>69308</v>
       </c>
       <c r="T3" t="n">
-        <v>5359.343500000001</v>
+        <v>5387.312</v>
       </c>
       <c r="U3" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
         <v>1.614467350746269</v>
@@ -694,7 +694,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="n">
         <v>1.574281688557537</v>
@@ -715,7 +715,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>62248</v>
+        <v>65612</v>
       </c>
       <c r="T4" t="n">
-        <v>5311.7505</v>
+        <v>5339.824000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>50000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
         <v>1.614467350746269</v>
@@ -759,7 +759,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="n">
         <v>1.574281688557537</v>
@@ -789,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>60861</v>
+        <v>64269</v>
       </c>
       <c r="T5" t="n">
-        <v>5299.952</v>
+        <v>5306.819000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
         <v>1.614467350746269</v>
@@ -854,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>55982</v>
+        <v>65136</v>
       </c>
       <c r="T6" t="n">
-        <v>5293.1515</v>
+        <v>5338.83</v>
       </c>
       <c r="U6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="7">
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>61100</v>
+        <v>71065</v>
       </c>
       <c r="T7" t="n">
-        <v>5324.76</v>
+        <v>5422.714499999999</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>61451</v>
+        <v>70049</v>
       </c>
       <c r="T8" t="n">
-        <v>6198.4755</v>
+        <v>5875.107</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>65951</v>
+        <v>80484</v>
       </c>
       <c r="T9" t="n">
-        <v>6632.370499999999</v>
+        <v>7214.4275</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
         <v>1.614467350746269</v>
@@ -1084,7 +1084,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J10" t="n">
         <v>1.574281688557537</v>
@@ -1105,7 +1105,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>75046</v>
+        <v>94725</v>
       </c>
       <c r="T10" t="n">
-        <v>7985.929</v>
+        <v>8467.018</v>
       </c>
       <c r="U10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
         <v>1.614467350746269</v>
@@ -1149,7 +1149,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J11" t="n">
         <v>1.574281688557537</v>
@@ -1170,7 +1170,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>84778</v>
+        <v>104123</v>
       </c>
       <c r="T11" t="n">
-        <v>13162.0615</v>
+        <v>13640.6165</v>
       </c>
       <c r="U11" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -1235,7 +1235,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>87637</v>
+        <v>110312</v>
       </c>
       <c r="T12" t="n">
-        <v>15499.911</v>
+        <v>15763.02</v>
       </c>
       <c r="U12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -1300,7 +1300,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>88210</v>
+        <v>111321</v>
       </c>
       <c r="T13" t="n">
-        <v>15978.718</v>
+        <v>15072.0395</v>
       </c>
       <c r="U13" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14">
@@ -1365,7 +1365,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>90838</v>
+        <v>109259</v>
       </c>
       <c r="T14" t="n">
-        <v>15949.85</v>
+        <v>15259.6675</v>
       </c>
       <c r="U14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15">
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>94152</v>
+        <v>113429</v>
       </c>
       <c r="T15" t="n">
-        <v>16112.4845</v>
+        <v>15815.744</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>96251</v>
+        <v>114542</v>
       </c>
       <c r="T16" t="n">
-        <v>16701.4645</v>
+        <v>15955.3275</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>96983</v>
+        <v>99426</v>
       </c>
       <c r="T17" t="n">
-        <v>16519.7305</v>
+        <v>16114.0735</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,13 +1634,19 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>95154</v>
+        <v>92477</v>
       </c>
       <c r="T18" t="n">
-        <v>16574.537</v>
+        <v>16384.389</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5260.194847222222</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.241048973938897</v>
       </c>
     </row>
     <row r="19">
@@ -1699,10 +1705,10 @@
         <v>6.1814</v>
       </c>
       <c r="S19" t="n">
-        <v>98298</v>
+        <v>1237</v>
       </c>
       <c r="T19" t="n">
-        <v>16188.1545</v>
+        <v>15932.637</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1763,11 +1769,8 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S20" t="n">
-        <v>94420</v>
-      </c>
       <c r="T20" t="n">
-        <v>15598.3275</v>
+        <v>15036.9065</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1828,11 +1831,8 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S21" t="n">
-        <v>92856</v>
-      </c>
       <c r="T21" t="n">
-        <v>14119.9695</v>
+        <v>13330.5025</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1893,11 +1893,8 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S22" t="n">
-        <v>88965</v>
-      </c>
       <c r="T22" t="n">
-        <v>12189.1525</v>
+        <v>11770.8115</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1958,20 +1955,11 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S23" t="n">
-        <v>42562</v>
-      </c>
       <c r="T23" t="n">
-        <v>9406.733</v>
+        <v>9312.075499999999</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5315.04841388889</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.163568972588152</v>
       </c>
     </row>
     <row r="24">
@@ -2030,7 +2018,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6502.2755</v>
+        <v>6773.7985</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2092,7 +2080,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5603.15</v>
+        <v>5542.130999999999</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -585,7 +585,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>72056</v>
+        <v>90862</v>
       </c>
       <c r="T2" t="n">
-        <v>5516.6335</v>
+        <v>5539.9085</v>
       </c>
       <c r="U2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="3">
@@ -650,7 +650,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -659,13 +659,19 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>69308</v>
+        <v>71987</v>
       </c>
       <c r="T3" t="n">
-        <v>5387.312</v>
+        <v>5343.505999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>45000</v>
+        <v>55000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4465.744597222222</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.961304639950756</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
         <v>1.614467350746269</v>
@@ -694,7 +700,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J4" t="n">
         <v>1.574281688557537</v>
@@ -724,13 +730,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>65612</v>
+        <v>69101</v>
       </c>
       <c r="T4" t="n">
-        <v>5339.824000000001</v>
+        <v>5250.640500000001</v>
       </c>
       <c r="U4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
         <v>1.614467350746269</v>
@@ -759,7 +765,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J5" t="n">
         <v>1.574281688557537</v>
@@ -789,13 +795,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>64269</v>
+        <v>67174</v>
       </c>
       <c r="T5" t="n">
-        <v>5306.819000000001</v>
+        <v>5194.129499999999</v>
       </c>
       <c r="U5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -854,10 +860,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>65136</v>
+        <v>67709</v>
       </c>
       <c r="T6" t="n">
-        <v>5338.83</v>
+        <v>5143.397</v>
       </c>
       <c r="U6" t="n">
         <v>32500</v>
@@ -919,10 +925,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>71065</v>
+        <v>79680</v>
       </c>
       <c r="T7" t="n">
-        <v>5422.714499999999</v>
+        <v>5188.8305</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -984,10 +990,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>70049</v>
+        <v>66217</v>
       </c>
       <c r="T8" t="n">
-        <v>5875.107</v>
+        <v>5628.136500000001</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1049,10 +1055,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>80484</v>
+        <v>73755</v>
       </c>
       <c r="T9" t="n">
-        <v>7214.4275</v>
+        <v>6549.074000000001</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1063,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
         <v>1.614467350746269</v>
@@ -1084,7 +1090,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J10" t="n">
         <v>1.574281688557537</v>
@@ -1105,7 +1111,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1120,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>94725</v>
+        <v>82980</v>
       </c>
       <c r="T10" t="n">
-        <v>8467.018</v>
+        <v>7809.641</v>
       </c>
       <c r="U10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -1128,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
         <v>1.614467350746269</v>
@@ -1170,7 +1176,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1179,13 +1185,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>104123</v>
+        <v>95273</v>
       </c>
       <c r="T11" t="n">
-        <v>13640.6165</v>
+        <v>12977.8705</v>
       </c>
       <c r="U11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
@@ -1235,7 +1241,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1244,13 +1250,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>110312</v>
+        <v>97940</v>
       </c>
       <c r="T12" t="n">
-        <v>15763.02</v>
+        <v>14879.494</v>
       </c>
       <c r="U12" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="13">
@@ -1309,10 +1315,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>111321</v>
+        <v>95015</v>
       </c>
       <c r="T13" t="n">
-        <v>15072.0395</v>
+        <v>15334.284</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1374,10 +1380,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>109259</v>
+        <v>103218</v>
       </c>
       <c r="T14" t="n">
-        <v>15259.6675</v>
+        <v>15538.4565</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1439,10 +1445,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>113429</v>
+        <v>100719</v>
       </c>
       <c r="T15" t="n">
-        <v>15815.744</v>
+        <v>15473.9585</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1510,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>114542</v>
+        <v>99562</v>
       </c>
       <c r="T16" t="n">
-        <v>15955.3275</v>
+        <v>15459.3285</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,10 +1575,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>99426</v>
+        <v>98100</v>
       </c>
       <c r="T17" t="n">
-        <v>16114.0735</v>
+        <v>15733.5675</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,19 +1640,13 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>92477</v>
+        <v>94912</v>
       </c>
       <c r="T18" t="n">
-        <v>16384.389</v>
+        <v>15999.228</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
-      </c>
-      <c r="V18" t="n">
-        <v>5260.194847222222</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5.241048973938897</v>
       </c>
     </row>
     <row r="19">
@@ -1705,10 +1705,10 @@
         <v>6.1814</v>
       </c>
       <c r="S19" t="n">
-        <v>1237</v>
+        <v>93211</v>
       </c>
       <c r="T19" t="n">
-        <v>15932.637</v>
+        <v>15687.07</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1769,8 +1769,11 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S20" t="n">
+        <v>95142</v>
+      </c>
       <c r="T20" t="n">
-        <v>15036.9065</v>
+        <v>15318.933</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1831,8 +1834,11 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S21" t="n">
+        <v>91234</v>
+      </c>
       <c r="T21" t="n">
-        <v>13330.5025</v>
+        <v>13434.6415</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1893,8 +1899,11 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S22" t="n">
+        <v>88757</v>
+      </c>
       <c r="T22" t="n">
-        <v>11770.8115</v>
+        <v>11609.815</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1955,8 +1964,11 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S23" t="n">
+        <v>85054</v>
+      </c>
       <c r="T23" t="n">
-        <v>9312.075499999999</v>
+        <v>9103.451000000001</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2017,8 +2029,11 @@
       <c r="R24" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S24" t="n">
+        <v>80176</v>
+      </c>
       <c r="T24" t="n">
-        <v>6773.7985</v>
+        <v>6290.4415</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2079,8 +2094,11 @@
       <c r="R25" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S25" t="n">
+        <v>76785</v>
+      </c>
       <c r="T25" t="n">
-        <v>5542.130999999999</v>
+        <v>5217.8665</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
         <v>1.614467350746269</v>
@@ -564,7 +564,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="n">
         <v>1.574281688557537</v>
@@ -585,7 +585,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>90862</v>
+        <v>65724</v>
       </c>
       <c r="T2" t="n">
-        <v>5539.9085</v>
+        <v>5632.2595</v>
       </c>
       <c r="U2" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
         <v>1.614467350746269</v>
@@ -629,7 +629,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="n">
         <v>1.574281688557537</v>
@@ -650,7 +650,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -659,19 +659,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>71987</v>
+        <v>63085</v>
       </c>
       <c r="T3" t="n">
-        <v>5343.505999999999</v>
+        <v>5478.844000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>55000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4465.744597222222</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.961304639950756</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
         <v>1.614467350746269</v>
@@ -700,7 +694,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="n">
         <v>1.574281688557537</v>
@@ -730,13 +724,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>69101</v>
+        <v>61258</v>
       </c>
       <c r="T4" t="n">
-        <v>5250.640500000001</v>
+        <v>5431.737499999999</v>
       </c>
       <c r="U4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -744,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
         <v>1.614467350746269</v>
@@ -765,7 +759,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="n">
         <v>1.574281688557537</v>
@@ -795,13 +789,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>67174</v>
+        <v>60272</v>
       </c>
       <c r="T5" t="n">
-        <v>5194.129499999999</v>
+        <v>5351.2935</v>
       </c>
       <c r="U5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -830,7 +824,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J6" t="n">
         <v>1.574281688557537</v>
@@ -860,13 +854,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>67709</v>
+        <v>63182</v>
       </c>
       <c r="T6" t="n">
-        <v>5143.397</v>
+        <v>5443.7565</v>
       </c>
       <c r="U6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -925,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>79680</v>
+        <v>67802</v>
       </c>
       <c r="T7" t="n">
-        <v>5188.8305</v>
+        <v>5521.645500000001</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -990,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>66217</v>
+        <v>69571</v>
       </c>
       <c r="T8" t="n">
-        <v>5628.136500000001</v>
+        <v>6568.996000000001</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1055,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>73755</v>
+        <v>81158</v>
       </c>
       <c r="T9" t="n">
-        <v>6549.074000000001</v>
+        <v>7039.0705</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1069,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
         <v>1.614467350746269</v>
@@ -1090,7 +1084,7 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J10" t="n">
         <v>1.574281688557537</v>
@@ -1111,7 +1105,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1120,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>82980</v>
+        <v>98453</v>
       </c>
       <c r="T10" t="n">
-        <v>7809.641</v>
+        <v>8768.984</v>
       </c>
       <c r="U10" t="n">
-        <v>22500</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="11">
@@ -1134,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
         <v>1.614467350746269</v>
@@ -1176,7 +1170,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1185,13 +1179,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>95273</v>
+        <v>108429</v>
       </c>
       <c r="T11" t="n">
-        <v>12977.8705</v>
+        <v>14287.7385</v>
       </c>
       <c r="U11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -1241,7 +1235,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1250,13 +1244,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>97940</v>
+        <v>111739</v>
       </c>
       <c r="T12" t="n">
-        <v>14879.494</v>
+        <v>16203.32</v>
       </c>
       <c r="U12" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -1315,10 +1309,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>95015</v>
+        <v>113097</v>
       </c>
       <c r="T13" t="n">
-        <v>15334.284</v>
+        <v>16253.0025</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1380,10 +1374,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>103218</v>
+        <v>112752</v>
       </c>
       <c r="T14" t="n">
-        <v>15538.4565</v>
+        <v>16193.9575</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1445,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>100719</v>
+        <v>116975</v>
       </c>
       <c r="T15" t="n">
-        <v>15473.9585</v>
+        <v>16307.025</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1510,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>99562</v>
+        <v>117642</v>
       </c>
       <c r="T16" t="n">
-        <v>15459.3285</v>
+        <v>16253.9055</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1575,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>98100</v>
+        <v>96422</v>
       </c>
       <c r="T17" t="n">
-        <v>15733.5675</v>
+        <v>15667.071</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1640,13 +1634,19 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>94912</v>
+        <v>94648</v>
       </c>
       <c r="T18" t="n">
-        <v>15999.228</v>
+        <v>16597.392</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4270.840211111111</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.076102251596674</v>
       </c>
     </row>
     <row r="19">
@@ -1704,11 +1704,8 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S19" t="n">
-        <v>93211</v>
-      </c>
       <c r="T19" t="n">
-        <v>15687.07</v>
+        <v>16121.5775</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1769,11 +1766,8 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S20" t="n">
-        <v>95142</v>
-      </c>
       <c r="T20" t="n">
-        <v>15318.933</v>
+        <v>15277.878</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1834,11 +1828,8 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S21" t="n">
-        <v>91234</v>
-      </c>
       <c r="T21" t="n">
-        <v>13434.6415</v>
+        <v>13983.214</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1899,11 +1890,8 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S22" t="n">
-        <v>88757</v>
-      </c>
       <c r="T22" t="n">
-        <v>11609.815</v>
+        <v>12008.9865</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1964,11 +1952,8 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S23" t="n">
-        <v>85054</v>
-      </c>
       <c r="T23" t="n">
-        <v>9103.451000000001</v>
+        <v>9648.002000000002</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2029,11 +2014,8 @@
       <c r="R24" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S24" t="n">
-        <v>80176</v>
-      </c>
       <c r="T24" t="n">
-        <v>6290.4415</v>
+        <v>6756.816500000001</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2094,11 +2076,8 @@
       <c r="R25" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S25" t="n">
-        <v>76785</v>
-      </c>
       <c r="T25" t="n">
-        <v>5217.8665</v>
+        <v>6005.93</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
         <v>1.614467350746269</v>
@@ -564,29 +564,29 @@
         <v>3.256321305319241</v>
       </c>
       <c r="I2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.574281688557537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.618481688557537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.596381688557537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.156522770432628</v>
+      </c>
+      <c r="P2" t="n">
         <v>10000</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.574281688557537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.156522770432628</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.618481688557537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.156522770432628</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.596381688557537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.156522770432628</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>65724</v>
+        <v>73158</v>
       </c>
       <c r="T2" t="n">
-        <v>5632.2595</v>
+        <v>5416.988499999999</v>
       </c>
       <c r="U2" t="n">
-        <v>22500</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="3">
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>63085</v>
+        <v>69971</v>
       </c>
       <c r="T3" t="n">
-        <v>5478.844000000001</v>
+        <v>5210.142</v>
       </c>
       <c r="U3" t="n">
         <v>22500</v>
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>61258</v>
+        <v>67233</v>
       </c>
       <c r="T4" t="n">
-        <v>5431.737499999999</v>
+        <v>5131.699999999999</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>60272</v>
+        <v>66774</v>
       </c>
       <c r="T5" t="n">
-        <v>5351.2935</v>
+        <v>5049.197999999999</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>63182</v>
+        <v>68427</v>
       </c>
       <c r="T6" t="n">
-        <v>5443.7565</v>
+        <v>5084.9925</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>67802</v>
+        <v>72833</v>
       </c>
       <c r="T7" t="n">
-        <v>5521.645500000001</v>
+        <v>5380.1055</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>69571</v>
+        <v>72858</v>
       </c>
       <c r="T8" t="n">
-        <v>6568.996000000001</v>
+        <v>6413.1515</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>81158</v>
+        <v>84685</v>
       </c>
       <c r="T9" t="n">
-        <v>7039.0705</v>
+        <v>7207.8405</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1105,7 +1105,7 @@
         <v>3.156522770432628</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>98453</v>
+        <v>102552</v>
       </c>
       <c r="T10" t="n">
-        <v>8768.984</v>
+        <v>9489.200000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="11">
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>108429</v>
+        <v>112257</v>
       </c>
       <c r="T11" t="n">
-        <v>14287.7385</v>
+        <v>14318.1885</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>111739</v>
+        <v>116157</v>
       </c>
       <c r="T12" t="n">
-        <v>16203.32</v>
+        <v>15340.192</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1309,10 +1309,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>113097</v>
+        <v>115181</v>
       </c>
       <c r="T13" t="n">
-        <v>16253.0025</v>
+        <v>15589.8715</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1374,10 +1374,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>112752</v>
+        <v>118438</v>
       </c>
       <c r="T14" t="n">
-        <v>16193.9575</v>
+        <v>15359.3685</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>116975</v>
+        <v>118968</v>
       </c>
       <c r="T15" t="n">
-        <v>16307.025</v>
+        <v>15511.44</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1504,10 +1504,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>117642</v>
+        <v>121806</v>
       </c>
       <c r="T16" t="n">
-        <v>16253.9055</v>
+        <v>15666.4375</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
@@ -1569,10 +1569,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>96422</v>
+        <v>114966</v>
       </c>
       <c r="T17" t="n">
-        <v>15667.071</v>
+        <v>16125.417</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1634,19 +1634,19 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>94648</v>
+        <v>15556</v>
       </c>
       <c r="T18" t="n">
-        <v>16597.392</v>
+        <v>16406.873</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
       </c>
       <c r="V18" t="n">
-        <v>4270.840211111111</v>
+        <v>3891.746977777778</v>
       </c>
       <c r="W18" t="n">
-        <v>5.076102251596674</v>
+        <v>-98.93470541392529</v>
       </c>
     </row>
     <row r="19">
@@ -1705,7 +1705,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16121.5775</v>
+        <v>16163.1645</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1767,7 +1767,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15277.878</v>
+        <v>15659.7175</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1829,7 +1829,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13983.214</v>
+        <v>13764.5865</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1891,7 +1891,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12008.9865</v>
+        <v>11506.208</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1953,7 +1953,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9648.002000000002</v>
+        <v>8102.793999999999</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2015,7 +2015,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6756.816500000001</v>
+        <v>6308.112999999999</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2077,7 +2077,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>6005.93</v>
+        <v>5711.482</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D2" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E2" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F2" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G2" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H2" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I2" t="n">
         <v>20000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K2" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L2" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M2" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N2" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O2" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P2" t="n">
         <v>10000</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>73158</v>
+        <v>74692</v>
       </c>
       <c r="T2" t="n">
-        <v>5416.988499999999</v>
+        <v>5329.484653465346</v>
       </c>
       <c r="U2" t="n">
-        <v>55000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="3">
@@ -611,43 +611,43 @@
         <v>12500</v>
       </c>
       <c r="C3" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D3" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E3" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F3" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G3" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H3" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I3" t="n">
         <v>10000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K3" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L3" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M3" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N3" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O3" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>69971</v>
+        <v>69322</v>
       </c>
       <c r="T3" t="n">
-        <v>5210.142</v>
+        <v>5259.706435643564</v>
       </c>
       <c r="U3" t="n">
         <v>22500</v>
@@ -676,43 +676,43 @@
         <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D4" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F4" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G4" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H4" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I4" t="n">
         <v>10000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K4" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L4" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M4" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N4" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O4" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>67233</v>
+        <v>70822</v>
       </c>
       <c r="T4" t="n">
-        <v>5131.699999999999</v>
+        <v>5163.882673267326</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -741,43 +741,43 @@
         <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D5" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E5" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F5" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G5" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H5" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I5" t="n">
         <v>10000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K5" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L5" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M5" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N5" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O5" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>66774</v>
+        <v>66768</v>
       </c>
       <c r="T5" t="n">
-        <v>5049.197999999999</v>
+        <v>5112.713366336634</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -806,43 +806,43 @@
         <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D6" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E6" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F6" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G6" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H6" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I6" t="n">
         <v>10000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K6" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L6" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M6" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N6" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O6" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>68427</v>
+        <v>67176</v>
       </c>
       <c r="T6" t="n">
-        <v>5084.9925</v>
+        <v>5106.558910891089</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -871,43 +871,43 @@
         <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D7" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E7" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F7" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G7" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H7" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I7" t="n">
         <v>10000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K7" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L7" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M7" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N7" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O7" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>72833</v>
+        <v>69168</v>
       </c>
       <c r="T7" t="n">
-        <v>5380.1055</v>
+        <v>5300.365346534654</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -936,43 +936,43 @@
         <v>12500</v>
       </c>
       <c r="C8" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D8" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E8" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F8" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G8" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H8" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I8" t="n">
         <v>10000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K8" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L8" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M8" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N8" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O8" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>72858</v>
+        <v>69788</v>
       </c>
       <c r="T8" t="n">
-        <v>6413.1515</v>
+        <v>6379.10693069307</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1001,43 +1001,43 @@
         <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D9" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E9" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F9" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G9" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H9" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I9" t="n">
         <v>10000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K9" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L9" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M9" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N9" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O9" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>84685</v>
+        <v>81843</v>
       </c>
       <c r="T9" t="n">
-        <v>7207.8405</v>
+        <v>7216.65693069307</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1066,43 +1066,43 @@
         <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D10" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E10" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F10" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G10" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H10" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I10" t="n">
         <v>20000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K10" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L10" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M10" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N10" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O10" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P10" t="n">
         <v>10000</v>
@@ -1114,10 +1114,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>102552</v>
+        <v>102620</v>
       </c>
       <c r="T10" t="n">
-        <v>9489.200000000001</v>
+        <v>8943.754455445545</v>
       </c>
       <c r="U10" t="n">
         <v>55000</v>
@@ -1131,43 +1131,43 @@
         <v>25000</v>
       </c>
       <c r="C11" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D11" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E11" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F11" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G11" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H11" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I11" t="n">
         <v>20000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K11" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L11" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M11" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N11" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O11" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P11" t="n">
         <v>20000</v>
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>112257</v>
+        <v>119386</v>
       </c>
       <c r="T11" t="n">
-        <v>14318.1885</v>
+        <v>13673.303</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1196,43 +1196,43 @@
         <v>25000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D12" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E12" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F12" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G12" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H12" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I12" t="n">
         <v>20000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K12" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L12" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M12" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N12" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O12" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P12" t="n">
         <v>20000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>116157</v>
+        <v>116370</v>
       </c>
       <c r="T12" t="n">
-        <v>15340.192</v>
+        <v>15596.091</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1261,43 +1261,43 @@
         <v>25000</v>
       </c>
       <c r="C13" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D13" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E13" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F13" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G13" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H13" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I13" t="n">
         <v>20000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K13" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L13" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M13" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N13" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O13" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P13" t="n">
         <v>20000</v>
@@ -1309,10 +1309,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>115181</v>
+        <v>120373</v>
       </c>
       <c r="T13" t="n">
-        <v>15589.8715</v>
+        <v>15591.495745</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
@@ -1326,43 +1326,43 @@
         <v>25000</v>
       </c>
       <c r="C14" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D14" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E14" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F14" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G14" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H14" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I14" t="n">
         <v>20000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K14" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L14" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M14" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N14" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O14" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P14" t="n">
         <v>20000</v>
@@ -1374,10 +1374,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>118438</v>
+        <v>119060</v>
       </c>
       <c r="T14" t="n">
-        <v>15359.3685</v>
+        <v>15952.581855</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1391,43 +1391,43 @@
         <v>25000</v>
       </c>
       <c r="C15" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D15" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E15" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F15" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G15" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H15" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I15" t="n">
         <v>20000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K15" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L15" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M15" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N15" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O15" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P15" t="n">
         <v>20000</v>
@@ -1439,10 +1439,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>118968</v>
+        <v>125273</v>
       </c>
       <c r="T15" t="n">
-        <v>15511.44</v>
+        <v>15967.63035</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1456,43 +1456,43 @@
         <v>25000</v>
       </c>
       <c r="C16" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D16" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E16" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F16" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G16" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H16" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I16" t="n">
         <v>20000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K16" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L16" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M16" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N16" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O16" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P16" t="n">
         <v>20000</v>
@@ -1504,13 +1504,19 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>121806</v>
+        <v>121978</v>
       </c>
       <c r="T16" t="n">
-        <v>15666.4375</v>
+        <v>16122.537585</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9348.322241666667</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.822046792782309</v>
       </c>
     </row>
     <row r="17">
@@ -1521,43 +1527,43 @@
         <v>25000</v>
       </c>
       <c r="C17" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D17" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E17" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F17" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G17" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H17" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I17" t="n">
         <v>20000</v>
       </c>
       <c r="J17" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K17" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L17" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M17" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N17" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O17" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P17" t="n">
         <v>20000</v>
@@ -1568,11 +1574,8 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S17" t="n">
-        <v>114966</v>
-      </c>
       <c r="T17" t="n">
-        <v>16125.417</v>
+        <v>16685.267165</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1586,43 +1589,43 @@
         <v>25000</v>
       </c>
       <c r="C18" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D18" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E18" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F18" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G18" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H18" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I18" t="n">
         <v>20000</v>
       </c>
       <c r="J18" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K18" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L18" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M18" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N18" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O18" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P18" t="n">
         <v>20000</v>
@@ -1633,20 +1636,11 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S18" t="n">
-        <v>15556</v>
-      </c>
       <c r="T18" t="n">
-        <v>16406.873</v>
+        <v>16903.41555</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3891.746977777778</v>
-      </c>
-      <c r="W18" t="n">
-        <v>-98.93470541392529</v>
       </c>
     </row>
     <row r="19">
@@ -1657,43 +1651,43 @@
         <v>25000</v>
       </c>
       <c r="C19" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D19" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E19" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F19" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G19" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H19" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I19" t="n">
         <v>20000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K19" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L19" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M19" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N19" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O19" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P19" t="n">
         <v>20000</v>
@@ -1705,7 +1699,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16163.1645</v>
+        <v>16563.521765</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1719,43 +1713,43 @@
         <v>25000</v>
       </c>
       <c r="C20" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D20" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E20" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F20" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G20" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H20" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I20" t="n">
         <v>20000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K20" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L20" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M20" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N20" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O20" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P20" t="n">
         <v>20000</v>
@@ -1767,7 +1761,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15659.7175</v>
+        <v>16239.09007</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1781,43 +1775,43 @@
         <v>25000</v>
       </c>
       <c r="C21" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D21" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E21" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F21" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G21" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H21" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I21" t="n">
         <v>20000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K21" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L21" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M21" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N21" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O21" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P21" t="n">
         <v>20000</v>
@@ -1829,7 +1823,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13764.5865</v>
+        <v>14649.071815</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1843,43 +1837,43 @@
         <v>25000</v>
       </c>
       <c r="C22" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D22" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E22" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F22" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G22" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H22" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I22" t="n">
         <v>20000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K22" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L22" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M22" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N22" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O22" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P22" t="n">
         <v>20000</v>
@@ -1891,7 +1885,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>11506.208</v>
+        <v>12459.301925</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1905,43 +1899,43 @@
         <v>25000</v>
       </c>
       <c r="C23" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D23" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E23" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F23" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G23" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H23" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I23" t="n">
         <v>20000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K23" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L23" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M23" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N23" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O23" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P23" t="n">
         <v>20000</v>
@@ -1953,7 +1947,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>8102.793999999999</v>
+        <v>9926.142135</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -1967,43 +1961,43 @@
         <v>25000</v>
       </c>
       <c r="C24" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D24" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E24" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F24" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G24" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H24" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I24" t="n">
         <v>20000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K24" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L24" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M24" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N24" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O24" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P24" t="n">
         <v>20000</v>
@@ -2015,7 +2009,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6308.112999999999</v>
+        <v>6827.198525000001</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2029,43 +2023,43 @@
         <v>25000</v>
       </c>
       <c r="C25" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="D25" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="E25" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="F25" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="G25" t="n">
-        <v>1.614467350746269</v>
+        <v>1.61152052238806</v>
       </c>
       <c r="H25" t="n">
-        <v>3.256321305319241</v>
+        <v>3.252113892052166</v>
       </c>
       <c r="I25" t="n">
         <v>20000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.574281688557537</v>
+        <v>1.571644654975447</v>
       </c>
       <c r="K25" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="L25" t="n">
-        <v>1.618481688557537</v>
+        <v>1.615844654975447</v>
       </c>
       <c r="M25" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="N25" t="n">
-        <v>1.596381688557537</v>
+        <v>1.593744654975447</v>
       </c>
       <c r="O25" t="n">
-        <v>3.156522770432628</v>
+        <v>3.156356820925165</v>
       </c>
       <c r="P25" t="n">
         <v>20000</v>
@@ -2077,7 +2071,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5711.482</v>
+        <v>6013.597064999999</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
         <v>1.61152052238806</v>
@@ -585,7 +585,7 @@
         <v>3.156356820925165</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>74692</v>
+        <v>16686.6685</v>
       </c>
       <c r="T2" t="n">
-        <v>5329.484653465346</v>
+        <v>5731.74</v>
       </c>
       <c r="U2" t="n">
-        <v>42500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -659,10 +659,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>69322</v>
+        <v>16181.618</v>
       </c>
       <c r="T3" t="n">
-        <v>5259.706435643564</v>
+        <v>5526.115</v>
       </c>
       <c r="U3" t="n">
         <v>22500</v>
@@ -724,10 +724,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>70822</v>
+        <v>15829.5828</v>
       </c>
       <c r="T4" t="n">
-        <v>5163.882673267326</v>
+        <v>5390.847</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -789,10 +789,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>66768</v>
+        <v>15668.5667</v>
       </c>
       <c r="T5" t="n">
-        <v>5112.713366336634</v>
+        <v>5356.008</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -854,10 +854,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>67176</v>
+        <v>15742.5741</v>
       </c>
       <c r="T6" t="n">
-        <v>5106.558910891089</v>
+        <v>5438.279</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -919,10 +919,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>69168</v>
+        <v>16879.6878</v>
       </c>
       <c r="T7" t="n">
-        <v>5300.365346534654</v>
+        <v>5565.175</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -984,10 +984,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>69788</v>
+        <v>17433.7432</v>
       </c>
       <c r="T8" t="n">
-        <v>6379.10693069307</v>
+        <v>6573.994000000001</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1049,10 +1049,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>81843</v>
+        <v>18994.8993</v>
       </c>
       <c r="T9" t="n">
-        <v>7216.65693069307</v>
+        <v>7376.026</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1105,7 +1105,7 @@
         <v>3.156356820925165</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>102620</v>
+        <v>23161.3159</v>
       </c>
       <c r="T10" t="n">
-        <v>8943.754455445545</v>
+        <v>8830.576999999997</v>
       </c>
       <c r="U10" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -1179,10 +1179,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>119386</v>
+        <v>24740.4738</v>
       </c>
       <c r="T11" t="n">
-        <v>13673.303</v>
+        <v>13925.926</v>
       </c>
       <c r="U11" t="n">
         <v>65000</v>
@@ -1244,10 +1244,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>116370</v>
+        <v>25525.5523</v>
       </c>
       <c r="T12" t="n">
-        <v>15596.091</v>
+        <v>16103.297</v>
       </c>
       <c r="U12" t="n">
         <v>65000</v>
@@ -1309,13 +1309,19 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>120373</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>15591.495745</v>
+        <v>15849.1235</v>
       </c>
       <c r="U13" t="n">
         <v>65000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3503.895619444445</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-3.592249136770559</v>
       </c>
     </row>
     <row r="14">
@@ -1373,11 +1379,8 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S14" t="n">
-        <v>119060</v>
-      </c>
       <c r="T14" t="n">
-        <v>15952.581855</v>
+        <v>15935.9585</v>
       </c>
       <c r="U14" t="n">
         <v>65000</v>
@@ -1438,11 +1441,8 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>125273</v>
-      </c>
       <c r="T15" t="n">
-        <v>15967.63035</v>
+        <v>15893.2095</v>
       </c>
       <c r="U15" t="n">
         <v>65000</v>
@@ -1503,20 +1503,11 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S16" t="n">
-        <v>121978</v>
-      </c>
       <c r="T16" t="n">
-        <v>16122.537585</v>
+        <v>16461.3505</v>
       </c>
       <c r="U16" t="n">
         <v>65000</v>
-      </c>
-      <c r="V16" t="n">
-        <v>9348.322241666667</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.822046792782309</v>
       </c>
     </row>
     <row r="17">
@@ -1575,7 +1566,7 @@
         <v>6.1814</v>
       </c>
       <c r="T17" t="n">
-        <v>16685.267165</v>
+        <v>16893.7965</v>
       </c>
       <c r="U17" t="n">
         <v>65000</v>
@@ -1637,7 +1628,7 @@
         <v>6.1814</v>
       </c>
       <c r="T18" t="n">
-        <v>16903.41555</v>
+        <v>16943.689</v>
       </c>
       <c r="U18" t="n">
         <v>65000</v>
@@ -1699,7 +1690,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16563.521765</v>
+        <v>15829.6355</v>
       </c>
       <c r="U19" t="n">
         <v>65000</v>
@@ -1761,7 +1752,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>16239.09007</v>
+        <v>15704.7975</v>
       </c>
       <c r="U20" t="n">
         <v>65000</v>
@@ -1823,7 +1814,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>14649.071815</v>
+        <v>14246.386</v>
       </c>
       <c r="U21" t="n">
         <v>65000</v>
@@ -1885,7 +1876,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>12459.301925</v>
+        <v>11999.0745</v>
       </c>
       <c r="U22" t="n">
         <v>65000</v>
@@ -1947,7 +1938,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9926.142135</v>
+        <v>9654.239000000001</v>
       </c>
       <c r="U23" t="n">
         <v>65000</v>
@@ -2009,7 +2000,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6827.198525000001</v>
+        <v>6915.5555</v>
       </c>
       <c r="U24" t="n">
         <v>65000</v>
@@ -2071,7 +2062,7 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>6013.597064999999</v>
+        <v>5962.4075</v>
       </c>
       <c r="U25" t="n">
         <v>65000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,55 +537,70 @@
           <t>CURRENT_RATE</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>BCQ_PEDC</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>RATE_PEDC_FIXED_FEE</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>RATE_PEDC_VARIABLE_FEE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E2" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F2" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H2" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K2" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L2" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M2" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N2" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O2" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -594,13 +609,22 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>16686.6685</v>
+        <v>54000</v>
       </c>
       <c r="T2" t="n">
-        <v>5731.74</v>
+        <v>4944.292321154038</v>
       </c>
       <c r="U2" t="n">
-        <v>45000</v>
+        <v>47500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="3">
@@ -611,46 +635,46 @@
         <v>12500</v>
       </c>
       <c r="C3" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D3" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E3" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F3" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H3" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I3" t="n">
         <v>10000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K3" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L3" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M3" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N3" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O3" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -659,13 +683,22 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>16181.618</v>
+        <v>50801</v>
       </c>
       <c r="T3" t="n">
-        <v>5526.115</v>
+        <v>4887.559847582665</v>
       </c>
       <c r="U3" t="n">
-        <v>22500</v>
+        <v>37500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="4">
@@ -676,43 +709,43 @@
         <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D4" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E4" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F4" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H4" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I4" t="n">
         <v>10000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K4" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L4" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M4" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N4" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O4" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,13 +757,22 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>15829.5828</v>
+        <v>48611</v>
       </c>
       <c r="T4" t="n">
-        <v>5390.847</v>
+        <v>4825.545484664752</v>
       </c>
       <c r="U4" t="n">
-        <v>22500</v>
+        <v>27500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="5">
@@ -741,43 +783,43 @@
         <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E5" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F5" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H5" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I5" t="n">
         <v>10000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K5" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L5" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M5" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N5" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O5" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -789,13 +831,22 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>15668.5667</v>
+        <v>46724</v>
       </c>
       <c r="T5" t="n">
-        <v>5356.008</v>
+        <v>4794.057447783162</v>
       </c>
       <c r="U5" t="n">
-        <v>22500</v>
+        <v>27500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="6">
@@ -806,43 +857,43 @@
         <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D6" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E6" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F6" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H6" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I6" t="n">
         <v>10000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K6" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L6" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M6" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N6" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O6" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -854,13 +905,22 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>15742.5741</v>
+        <v>47566</v>
       </c>
       <c r="T6" t="n">
-        <v>5438.279</v>
+        <v>4794.010622970725</v>
       </c>
       <c r="U6" t="n">
-        <v>22500</v>
+        <v>27500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="7">
@@ -871,43 +931,43 @@
         <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D7" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E7" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F7" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H7" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I7" t="n">
         <v>10000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K7" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L7" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M7" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N7" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O7" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -919,13 +979,22 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>16879.6878</v>
+        <v>48485</v>
       </c>
       <c r="T7" t="n">
-        <v>5565.175</v>
+        <v>4890.506649537315</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>27500</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="8">
@@ -936,43 +1005,43 @@
         <v>12500</v>
       </c>
       <c r="C8" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D8" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E8" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F8" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H8" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I8" t="n">
         <v>10000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K8" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L8" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M8" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N8" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O8" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -984,13 +1053,22 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>17433.7432</v>
+        <v>47871</v>
       </c>
       <c r="T8" t="n">
-        <v>6573.994000000001</v>
+        <v>5267.449152182856</v>
       </c>
       <c r="U8" t="n">
-        <v>22500</v>
+        <v>27500</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="9">
@@ -1001,43 +1079,43 @@
         <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D9" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E9" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F9" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H9" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I9" t="n">
         <v>10000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K9" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L9" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M9" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N9" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O9" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1049,13 +1127,22 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>18994.8993</v>
+        <v>41983</v>
       </c>
       <c r="T9" t="n">
-        <v>7376.026</v>
+        <v>6573.678702600464</v>
       </c>
       <c r="U9" t="n">
-        <v>22500</v>
+        <v>27500</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="10">
@@ -1066,43 +1153,43 @@
         <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D10" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E10" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F10" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G10" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H10" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I10" t="n">
         <v>20000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K10" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L10" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M10" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N10" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O10" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P10" t="n">
         <v>20000</v>
@@ -1114,13 +1201,22 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>23161.3159</v>
+        <v>65400</v>
       </c>
       <c r="T10" t="n">
-        <v>8830.576999999997</v>
+        <v>8191.789500000001</v>
       </c>
       <c r="U10" t="n">
-        <v>65000</v>
+        <v>70000</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="11">
@@ -1131,43 +1227,43 @@
         <v>25000</v>
       </c>
       <c r="C11" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D11" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E11" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F11" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H11" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I11" t="n">
         <v>20000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K11" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L11" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M11" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N11" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O11" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P11" t="n">
         <v>20000</v>
@@ -1179,13 +1275,22 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>24740.4738</v>
+        <v>73839</v>
       </c>
       <c r="T11" t="n">
-        <v>13925.926</v>
+        <v>14018.138</v>
       </c>
       <c r="U11" t="n">
-        <v>65000</v>
+        <v>70000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="12">
@@ -1196,43 +1301,43 @@
         <v>25000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D12" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E12" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F12" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G12" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H12" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I12" t="n">
         <v>20000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K12" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L12" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M12" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N12" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O12" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P12" t="n">
         <v>20000</v>
@@ -1244,13 +1349,22 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>25525.5523</v>
+        <v>77636</v>
       </c>
       <c r="T12" t="n">
-        <v>16103.297</v>
+        <v>14986.9245</v>
       </c>
       <c r="U12" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="13">
@@ -1261,43 +1375,43 @@
         <v>25000</v>
       </c>
       <c r="C13" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D13" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E13" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F13" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G13" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H13" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I13" t="n">
         <v>20000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K13" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L13" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M13" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N13" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O13" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P13" t="n">
         <v>20000</v>
@@ -1309,19 +1423,22 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>78566</v>
       </c>
       <c r="T13" t="n">
-        <v>15849.1235</v>
+        <v>14980.626</v>
       </c>
       <c r="U13" t="n">
-        <v>65000</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3503.895619444445</v>
-      </c>
-      <c r="W13" t="n">
-        <v>-3.592249136770559</v>
+        <v>75000</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="14">
@@ -1332,43 +1449,43 @@
         <v>25000</v>
       </c>
       <c r="C14" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D14" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E14" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F14" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G14" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H14" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I14" t="n">
         <v>20000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K14" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L14" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M14" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N14" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O14" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P14" t="n">
         <v>20000</v>
@@ -1379,11 +1496,23 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S14" t="n">
+        <v>79318</v>
+      </c>
       <c r="T14" t="n">
-        <v>15935.9585</v>
+        <v>15169.25375</v>
       </c>
       <c r="U14" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="15">
@@ -1394,43 +1523,43 @@
         <v>25000</v>
       </c>
       <c r="C15" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D15" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E15" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F15" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G15" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H15" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I15" t="n">
         <v>20000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K15" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L15" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M15" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N15" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O15" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P15" t="n">
         <v>20000</v>
@@ -1441,11 +1570,23 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>83095</v>
+      </c>
       <c r="T15" t="n">
-        <v>15893.2095</v>
+        <v>15666.69225</v>
       </c>
       <c r="U15" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="16">
@@ -1456,43 +1597,43 @@
         <v>25000</v>
       </c>
       <c r="C16" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D16" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E16" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F16" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G16" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H16" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I16" t="n">
         <v>20000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K16" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L16" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M16" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N16" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O16" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P16" t="n">
         <v>20000</v>
@@ -1503,11 +1644,29 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S16" t="n">
+        <v>51910</v>
+      </c>
       <c r="T16" t="n">
-        <v>16461.3505</v>
+        <v>15813.73925</v>
       </c>
       <c r="U16" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12275.72458055556</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-2.01507605113493</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="17">
@@ -1518,43 +1677,43 @@
         <v>25000</v>
       </c>
       <c r="C17" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D17" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E17" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F17" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G17" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H17" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I17" t="n">
         <v>20000</v>
       </c>
       <c r="J17" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K17" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L17" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M17" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N17" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O17" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P17" t="n">
         <v>20000</v>
@@ -1566,10 +1725,19 @@
         <v>6.1814</v>
       </c>
       <c r="T17" t="n">
-        <v>16893.7965</v>
+        <v>16092.652</v>
       </c>
       <c r="U17" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="18">
@@ -1580,43 +1748,43 @@
         <v>25000</v>
       </c>
       <c r="C18" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D18" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E18" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F18" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G18" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H18" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I18" t="n">
         <v>20000</v>
       </c>
       <c r="J18" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K18" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L18" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M18" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N18" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O18" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P18" t="n">
         <v>20000</v>
@@ -1628,10 +1796,19 @@
         <v>6.1814</v>
       </c>
       <c r="T18" t="n">
-        <v>16943.689</v>
+        <v>16268.66525</v>
       </c>
       <c r="U18" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="19">
@@ -1642,43 +1819,43 @@
         <v>25000</v>
       </c>
       <c r="C19" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D19" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E19" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F19" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G19" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H19" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I19" t="n">
         <v>20000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K19" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L19" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M19" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N19" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O19" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P19" t="n">
         <v>20000</v>
@@ -1690,10 +1867,19 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>15829.6355</v>
+        <v>16049.11175</v>
       </c>
       <c r="U19" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="20">
@@ -1704,43 +1890,43 @@
         <v>25000</v>
       </c>
       <c r="C20" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D20" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E20" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F20" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G20" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H20" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I20" t="n">
         <v>20000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K20" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L20" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M20" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N20" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O20" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P20" t="n">
         <v>20000</v>
@@ -1752,10 +1938,19 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15704.7975</v>
+        <v>14955.2725</v>
       </c>
       <c r="U20" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="21">
@@ -1766,43 +1961,43 @@
         <v>25000</v>
       </c>
       <c r="C21" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D21" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E21" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F21" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G21" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H21" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I21" t="n">
         <v>20000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K21" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L21" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M21" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N21" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O21" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P21" t="n">
         <v>20000</v>
@@ -1814,10 +2009,19 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>14246.386</v>
+        <v>13776.544</v>
       </c>
       <c r="U21" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="22">
@@ -1828,43 +2032,43 @@
         <v>25000</v>
       </c>
       <c r="C22" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D22" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E22" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F22" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G22" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H22" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I22" t="n">
         <v>20000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K22" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L22" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M22" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N22" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O22" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P22" t="n">
         <v>20000</v>
@@ -1876,10 +2080,19 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>11999.0745</v>
+        <v>12164.7975</v>
       </c>
       <c r="U22" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="23">
@@ -1890,43 +2103,43 @@
         <v>25000</v>
       </c>
       <c r="C23" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D23" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E23" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F23" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G23" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H23" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I23" t="n">
         <v>20000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K23" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L23" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M23" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N23" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O23" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P23" t="n">
         <v>20000</v>
@@ -1938,10 +2151,19 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9654.239000000001</v>
+        <v>9625.974749999999</v>
       </c>
       <c r="U23" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="24">
@@ -1952,43 +2174,43 @@
         <v>25000</v>
       </c>
       <c r="C24" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D24" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E24" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F24" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G24" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H24" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I24" t="n">
         <v>20000</v>
       </c>
       <c r="J24" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K24" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L24" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M24" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N24" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O24" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P24" t="n">
         <v>20000</v>
@@ -2000,10 +2222,19 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6915.5555</v>
+        <v>6491.415499999999</v>
       </c>
       <c r="U24" t="n">
-        <v>65000</v>
+        <v>75000</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
     <row r="25">
@@ -2011,46 +2242,46 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C25" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="D25" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="E25" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="F25" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="G25" t="n">
-        <v>1.61152052238806</v>
+        <v>1.6138125</v>
       </c>
       <c r="H25" t="n">
-        <v>3.252113892052166</v>
+        <v>3.367492980797684</v>
       </c>
       <c r="I25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.571644654975447</v>
+        <v>1.581432633727359</v>
       </c>
       <c r="K25" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="L25" t="n">
-        <v>1.615844654975447</v>
+        <v>1.625632633727359</v>
       </c>
       <c r="M25" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="N25" t="n">
-        <v>1.593744654975447</v>
+        <v>1.603532633727359</v>
       </c>
       <c r="O25" t="n">
-        <v>3.156356820925165</v>
+        <v>3.247215228213608</v>
       </c>
       <c r="P25" t="n">
         <v>20000</v>
@@ -2062,10 +2293,19 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5962.4075</v>
+        <v>5924.492750000001</v>
       </c>
       <c r="U25" t="n">
-        <v>65000</v>
+        <v>47500</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3.657828335514088</v>
       </c>
     </row>
   </sheetData>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -560,17 +560,71 @@
       <c r="B2" t="n">
         <v>12500</v>
       </c>
+      <c r="C2" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I2" t="n">
         <v>10000</v>
       </c>
+      <c r="J2" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P2" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5694.447073155357</v>
       </c>
       <c r="U2" t="n">
         <v>52500</v>
       </c>
       <c r="X2" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="3">
@@ -580,17 +634,71 @@
       <c r="B3" t="n">
         <v>12500</v>
       </c>
+      <c r="C3" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I3" t="n">
         <v>10000</v>
       </c>
+      <c r="J3" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P3" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S3" t="n">
+        <v>42224</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5603.598815434763</v>
       </c>
       <c r="U3" t="n">
         <v>42500</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="4">
@@ -600,17 +708,71 @@
       <c r="B4" t="n">
         <v>12500</v>
       </c>
+      <c r="C4" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I4" t="n">
         <v>10000</v>
       </c>
+      <c r="J4" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P4" t="n">
         <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S4" t="n">
+        <v>40753</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5504.439695743004</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="5">
@@ -620,17 +782,71 @@
       <c r="B5" t="n">
         <v>12500</v>
       </c>
+      <c r="C5" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I5" t="n">
         <v>10000</v>
       </c>
+      <c r="J5" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P5" t="n">
         <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S5" t="n">
+        <v>39651</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5434.829198104781</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="6">
@@ -640,17 +856,71 @@
       <c r="B6" t="n">
         <v>12500</v>
       </c>
+      <c r="C6" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I6" t="n">
         <v>10000</v>
       </c>
+      <c r="J6" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P6" t="n">
         <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S6" t="n">
+        <v>40400</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5477.095567269553</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="7">
@@ -660,17 +930,71 @@
       <c r="B7" t="n">
         <v>12500</v>
       </c>
+      <c r="C7" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I7" t="n">
         <v>10000</v>
       </c>
+      <c r="J7" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P7" t="n">
         <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S7" t="n">
+        <v>41765</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5780.126988954585</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="8">
@@ -680,17 +1004,71 @@
       <c r="B8" t="n">
         <v>12500</v>
       </c>
+      <c r="C8" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I8" t="n">
         <v>10000</v>
       </c>
+      <c r="J8" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P8" t="n">
         <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S8" t="n">
+        <v>43101</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6039.323408975071</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="9">
@@ -700,17 +1078,71 @@
       <c r="B9" t="n">
         <v>12500</v>
       </c>
+      <c r="C9" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I9" t="n">
         <v>10000</v>
       </c>
+      <c r="J9" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P9" t="n">
         <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S9" t="n">
+        <v>48693</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6818.027790699687</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="10">
@@ -720,17 +1152,71 @@
       <c r="B10" t="n">
         <v>12500</v>
       </c>
+      <c r="C10" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I10" t="n">
         <v>10000</v>
       </c>
+      <c r="J10" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P10" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S10" t="n">
+        <v>56029</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8312.497000000001</v>
       </c>
       <c r="U10" t="n">
         <v>42500</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="11">
@@ -740,17 +1226,71 @@
       <c r="B11" t="n">
         <v>12500</v>
       </c>
+      <c r="C11" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I11" t="n">
         <v>10000</v>
       </c>
+      <c r="J11" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P11" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S11" t="n">
+        <v>62011</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14224.088055</v>
       </c>
       <c r="U11" t="n">
         <v>42500</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="12">
@@ -760,17 +1300,71 @@
       <c r="B12" t="n">
         <v>12500</v>
       </c>
+      <c r="C12" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I12" t="n">
         <v>10000</v>
       </c>
+      <c r="J12" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P12" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S12" t="n">
+        <v>62360</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14992.3235</v>
       </c>
       <c r="U12" t="n">
         <v>42500</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="13">
@@ -780,17 +1374,71 @@
       <c r="B13" t="n">
         <v>12500</v>
       </c>
+      <c r="C13" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I13" t="n">
         <v>10000</v>
       </c>
+      <c r="J13" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P13" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S13" t="n">
+        <v>61531</v>
+      </c>
+      <c r="T13" t="n">
+        <v>15133.654</v>
       </c>
       <c r="U13" t="n">
         <v>42500</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="14">
@@ -800,17 +1448,71 @@
       <c r="B14" t="n">
         <v>12500</v>
       </c>
+      <c r="C14" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I14" t="n">
         <v>10000</v>
       </c>
+      <c r="J14" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P14" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S14" t="n">
+        <v>61661</v>
+      </c>
+      <c r="T14" t="n">
+        <v>14810.5425</v>
       </c>
       <c r="U14" t="n">
         <v>52500</v>
       </c>
       <c r="X14" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="15">
@@ -820,17 +1522,71 @@
       <c r="B15" t="n">
         <v>25000</v>
       </c>
+      <c r="C15" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I15" t="n">
         <v>20000</v>
       </c>
+      <c r="J15" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P15" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S15" t="n">
+        <v>63303</v>
+      </c>
+      <c r="T15" t="n">
+        <v>14968.454</v>
       </c>
       <c r="U15" t="n">
         <v>75000</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="16">
@@ -840,17 +1596,77 @@
       <c r="B16" t="n">
         <v>25000</v>
       </c>
+      <c r="C16" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I16" t="n">
         <v>20000</v>
       </c>
+      <c r="J16" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P16" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="S16" t="n">
+        <v>61846</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15674.209</v>
       </c>
       <c r="U16" t="n">
         <v>75000</v>
       </c>
+      <c r="V16" t="n">
+        <v>3715.171052777778</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.397489044622313</v>
+      </c>
       <c r="X16" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="17">
@@ -860,17 +1676,68 @@
       <c r="B17" t="n">
         <v>25000</v>
       </c>
+      <c r="C17" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I17" t="n">
         <v>20000</v>
       </c>
+      <c r="J17" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P17" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T17" t="n">
+        <v>16353.4195</v>
       </c>
       <c r="U17" t="n">
         <v>75000</v>
       </c>
       <c r="X17" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="18">
@@ -880,17 +1747,68 @@
       <c r="B18" t="n">
         <v>25000</v>
       </c>
+      <c r="C18" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I18" t="n">
         <v>20000</v>
       </c>
+      <c r="J18" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P18" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16764.4865</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
       </c>
       <c r="X18" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="19">
@@ -900,17 +1818,68 @@
       <c r="B19" t="n">
         <v>25000</v>
       </c>
+      <c r="C19" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I19" t="n">
         <v>20000</v>
       </c>
+      <c r="J19" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P19" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T19" t="n">
+        <v>16629.4945</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
       </c>
       <c r="X19" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="20">
@@ -920,17 +1889,68 @@
       <c r="B20" t="n">
         <v>25000</v>
       </c>
+      <c r="C20" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I20" t="n">
         <v>20000</v>
       </c>
+      <c r="J20" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P20" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T20" t="n">
+        <v>16025.2325</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
       </c>
       <c r="X20" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="21">
@@ -940,17 +1960,68 @@
       <c r="B21" t="n">
         <v>25000</v>
       </c>
+      <c r="C21" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I21" t="n">
         <v>20000</v>
       </c>
+      <c r="J21" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P21" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14539.505</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
       </c>
       <c r="X21" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="22">
@@ -960,17 +2031,68 @@
       <c r="B22" t="n">
         <v>25000</v>
       </c>
+      <c r="C22" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I22" t="n">
         <v>20000</v>
       </c>
+      <c r="J22" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P22" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12603.773</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
       </c>
       <c r="X22" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="23">
@@ -980,17 +2102,68 @@
       <c r="B23" t="n">
         <v>25000</v>
       </c>
+      <c r="C23" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I23" t="n">
         <v>20000</v>
       </c>
+      <c r="J23" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P23" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T23" t="n">
+        <v>9665.7935</v>
       </c>
       <c r="U23" t="n">
         <v>75000</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="24">
@@ -1000,17 +2173,68 @@
       <c r="B24" t="n">
         <v>25000</v>
       </c>
+      <c r="C24" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I24" t="n">
         <v>20000</v>
       </c>
+      <c r="J24" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P24" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6367.0695</v>
       </c>
       <c r="U24" t="n">
         <v>75000</v>
       </c>
       <c r="X24" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
     <row r="25">
@@ -1020,17 +2244,68 @@
       <c r="B25" t="n">
         <v>25000</v>
       </c>
+      <c r="C25" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.282722795887347</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.61610447761194</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.282722795887347</v>
+      </c>
       <c r="I25" t="n">
         <v>20000</v>
       </c>
+      <c r="J25" t="n">
+        <v>1.602133486700881</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.646333486700881</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.305936425515303</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.624233486700881</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.305936425515303</v>
+      </c>
       <c r="P25" t="n">
         <v>20000</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6.1814</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5794.098</v>
       </c>
       <c r="U25" t="n">
         <v>75000</v>
       </c>
       <c r="X25" t="n">
         <v>10000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3.470217459151313</v>
       </c>
     </row>
   </sheetData>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1654,10 +1654,10 @@
         <v>75000</v>
       </c>
       <c r="V16" t="n">
-        <v>3715.171052777778</v>
+        <v>3391.056472222223</v>
       </c>
       <c r="W16" t="n">
-        <v>6.397489044622313</v>
+        <v>6.599855958831963</v>
       </c>
       <c r="X16" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1653,12 +1653,6 @@
       <c r="U16" t="n">
         <v>75000</v>
       </c>
-      <c r="V16" t="n">
-        <v>3391.056472222223</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.599855958831963</v>
-      </c>
       <c r="X16" t="n">
         <v>10000</v>
       </c>
@@ -1724,6 +1718,9 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S17" t="n">
+        <v>59827</v>
+      </c>
       <c r="T17" t="n">
         <v>16353.4195</v>
       </c>
@@ -1795,11 +1792,20 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S18" t="n">
+        <v>55356</v>
+      </c>
       <c r="T18" t="n">
         <v>16764.4865</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3775.588505555555</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.867359362292032</v>
       </c>
       <c r="X18" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1793,19 +1793,13 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>55356</v>
+        <v>58430</v>
       </c>
       <c r="T18" t="n">
         <v>16764.4865</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3775.588505555555</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6.867359362292032</v>
       </c>
       <c r="X18" t="n">
         <v>10000</v>
@@ -1872,6 +1866,9 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S19" t="n">
+        <v>56357</v>
+      </c>
       <c r="T19" t="n">
         <v>16629.4945</v>
       </c>
@@ -1943,6 +1940,9 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S20" t="n">
+        <v>55191</v>
+      </c>
       <c r="T20" t="n">
         <v>16025.2325</v>
       </c>
@@ -2014,6 +2014,9 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S21" t="n">
+        <v>52357</v>
+      </c>
       <c r="T21" t="n">
         <v>14539.505</v>
       </c>
@@ -2085,6 +2088,9 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S22" t="n">
+        <v>50614</v>
+      </c>
       <c r="T22" t="n">
         <v>12603.773</v>
       </c>
@@ -2156,11 +2162,20 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S23" t="n">
+        <v>47951</v>
+      </c>
       <c r="T23" t="n">
         <v>9665.7935</v>
       </c>
       <c r="U23" t="n">
         <v>75000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3675.599486111112</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.987983166606228</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
         <v>1.61610447761194</v>
@@ -579,7 +579,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J2" t="n">
         <v>1.602133486700881</v>
@@ -609,13 +609,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>44172</v>
+        <v>39477</v>
       </c>
       <c r="T2" t="n">
-        <v>5694.447073155357</v>
+        <v>5801.188</v>
       </c>
       <c r="U2" t="n">
-        <v>52500</v>
+        <v>66500</v>
       </c>
       <c r="X2" t="n">
         <v>10000</v>
@@ -674,7 +674,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>42224</v>
+        <v>37915</v>
       </c>
       <c r="T3" t="n">
-        <v>5603.598815434763</v>
+        <v>5641.719000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>40753</v>
+        <v>36600</v>
       </c>
       <c r="T4" t="n">
-        <v>5504.439695743004</v>
+        <v>5541.0945</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -831,10 +831,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>39651</v>
+        <v>35560</v>
       </c>
       <c r="T5" t="n">
-        <v>5434.829198104781</v>
+        <v>5516.280000000001</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -896,7 +896,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>40400</v>
+        <v>35955</v>
       </c>
       <c r="T6" t="n">
-        <v>5477.095567269553</v>
+        <v>5497.001</v>
       </c>
       <c r="U6" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>41765</v>
+        <v>38201</v>
       </c>
       <c r="T7" t="n">
-        <v>5780.126988954585</v>
+        <v>5761.397999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>43101</v>
+        <v>39591</v>
       </c>
       <c r="T8" t="n">
-        <v>6039.323408975071</v>
+        <v>6103.384</v>
       </c>
       <c r="U8" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>48693</v>
+        <v>43811</v>
       </c>
       <c r="T9" t="n">
-        <v>6818.027790699687</v>
+        <v>6908.593</v>
       </c>
       <c r="U9" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>56029</v>
+        <v>53945</v>
       </c>
       <c r="T10" t="n">
-        <v>8312.497000000001</v>
+        <v>8421.428500000002</v>
       </c>
       <c r="U10" t="n">
         <v>42500</v>
@@ -1275,10 +1275,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>62011</v>
+        <v>60389</v>
       </c>
       <c r="T11" t="n">
-        <v>14224.088055</v>
+        <v>14998.9355</v>
       </c>
       <c r="U11" t="n">
         <v>42500</v>
@@ -1349,16 +1349,16 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>62360</v>
+        <v>62710</v>
       </c>
       <c r="T12" t="n">
-        <v>14992.3235</v>
+        <v>14970.028</v>
       </c>
       <c r="U12" t="n">
-        <v>42500</v>
+        <v>52500</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y12" t="n">
         <v>2.3081</v>
@@ -1423,16 +1423,16 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>61531</v>
+        <v>64109</v>
       </c>
       <c r="T13" t="n">
-        <v>15133.654</v>
+        <v>15231.207</v>
       </c>
       <c r="U13" t="n">
-        <v>42500</v>
+        <v>52500</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y13" t="n">
         <v>2.3081</v>
@@ -1497,10 +1497,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>61661</v>
+        <v>64926</v>
       </c>
       <c r="T14" t="n">
-        <v>14810.5425</v>
+        <v>15435.473</v>
       </c>
       <c r="U14" t="n">
         <v>52500</v>
@@ -1571,10 +1571,10 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>63303</v>
+        <v>62494</v>
       </c>
       <c r="T15" t="n">
-        <v>14968.454</v>
+        <v>15934.069</v>
       </c>
       <c r="U15" t="n">
         <v>75000</v>
@@ -1645,10 +1645,10 @@
         <v>6.1814</v>
       </c>
       <c r="S16" t="n">
-        <v>61846</v>
+        <v>65765</v>
       </c>
       <c r="T16" t="n">
-        <v>15674.209</v>
+        <v>16001.6455</v>
       </c>
       <c r="U16" t="n">
         <v>75000</v>
@@ -1719,10 +1719,10 @@
         <v>6.1814</v>
       </c>
       <c r="S17" t="n">
-        <v>59827</v>
+        <v>45248</v>
       </c>
       <c r="T17" t="n">
-        <v>16353.4195</v>
+        <v>16435.614</v>
       </c>
       <c r="U17" t="n">
         <v>75000</v>
@@ -1793,10 +1793,10 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>58430</v>
+        <v>6124</v>
       </c>
       <c r="T18" t="n">
-        <v>16764.4865</v>
+        <v>17178.1825</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
@@ -1866,11 +1866,8 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S19" t="n">
-        <v>56357</v>
-      </c>
       <c r="T19" t="n">
-        <v>16629.4945</v>
+        <v>16939.003</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
@@ -1940,11 +1937,8 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S20" t="n">
-        <v>55191</v>
-      </c>
       <c r="T20" t="n">
-        <v>16025.2325</v>
+        <v>16685.8825</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
@@ -2014,11 +2008,8 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S21" t="n">
-        <v>52357</v>
-      </c>
       <c r="T21" t="n">
-        <v>14539.505</v>
+        <v>15197.4365</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
@@ -2088,11 +2079,8 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S22" t="n">
-        <v>50614</v>
-      </c>
       <c r="T22" t="n">
-        <v>12603.773</v>
+        <v>13342.395</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
@@ -2162,20 +2150,11 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S23" t="n">
-        <v>47951</v>
-      </c>
       <c r="T23" t="n">
-        <v>9665.7935</v>
+        <v>9716.890500000001</v>
       </c>
       <c r="U23" t="n">
         <v>75000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3675.599486111112</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6.987983166606228</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>
@@ -2243,7 +2222,7 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6367.0695</v>
+        <v>6391.799999999999</v>
       </c>
       <c r="U24" t="n">
         <v>75000</v>
@@ -2263,7 +2242,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="C25" t="n">
         <v>1.61610447761194</v>
@@ -2314,10 +2293,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5794.098</v>
+        <v>5848.197</v>
       </c>
       <c r="U25" t="n">
-        <v>75000</v>
+        <v>72500</v>
       </c>
       <c r="X25" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1793,7 +1793,7 @@
         <v>6.1814</v>
       </c>
       <c r="S18" t="n">
-        <v>6124</v>
+        <v>17275</v>
       </c>
       <c r="T18" t="n">
         <v>17178.1825</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
         <v>1.61610447761194</v>
@@ -579,7 +579,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="n">
         <v>1.602133486700881</v>
@@ -609,16 +609,16 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>39477</v>
+        <v>33061</v>
       </c>
       <c r="T2" t="n">
-        <v>5801.188</v>
+        <v>5005.48337366473</v>
       </c>
       <c r="U2" t="n">
-        <v>66500</v>
+        <v>42500</v>
       </c>
       <c r="X2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>2.3081</v>
@@ -674,7 +674,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>37915</v>
+        <v>31828</v>
       </c>
       <c r="T3" t="n">
-        <v>5641.719000000001</v>
+        <v>4922.298456099087</v>
       </c>
       <c r="U3" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>36600</v>
+        <v>30574</v>
       </c>
       <c r="T4" t="n">
-        <v>5541.0945</v>
+        <v>4850.625419333438</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -831,10 +831,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>35560</v>
+        <v>29643</v>
       </c>
       <c r="T5" t="n">
-        <v>5516.280000000001</v>
+        <v>4797.274898040722</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -896,7 +896,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>35955</v>
+        <v>29848</v>
       </c>
       <c r="T6" t="n">
-        <v>5497.001</v>
+        <v>4859.095012476347</v>
       </c>
       <c r="U6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>38201</v>
+        <v>30796</v>
       </c>
       <c r="T7" t="n">
-        <v>5761.397999999999</v>
+        <v>4960.889853826959</v>
       </c>
       <c r="U7" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>39591</v>
+        <v>31613</v>
       </c>
       <c r="T8" t="n">
-        <v>6103.384</v>
+        <v>5211.449593293681</v>
       </c>
       <c r="U8" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>43811</v>
+        <v>34939</v>
       </c>
       <c r="T9" t="n">
-        <v>6908.593</v>
+        <v>6049.649550323782</v>
       </c>
       <c r="U9" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>53945</v>
+        <v>41934</v>
       </c>
       <c r="T10" t="n">
-        <v>8421.428500000002</v>
+        <v>8417.127547097272</v>
       </c>
       <c r="U10" t="n">
         <v>42500</v>
@@ -1275,10 +1275,10 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>60389</v>
+        <v>43152</v>
       </c>
       <c r="T11" t="n">
-        <v>14998.9355</v>
+        <v>13902.175</v>
       </c>
       <c r="U11" t="n">
         <v>42500</v>
@@ -1349,10 +1349,10 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>62710</v>
+        <v>44379</v>
       </c>
       <c r="T12" t="n">
-        <v>14970.028</v>
+        <v>15210.828</v>
       </c>
       <c r="U12" t="n">
         <v>52500</v>
@@ -1423,10 +1423,10 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>64109</v>
+        <v>45163</v>
       </c>
       <c r="T13" t="n">
-        <v>15231.207</v>
+        <v>15097.205</v>
       </c>
       <c r="U13" t="n">
         <v>52500</v>
@@ -1497,10 +1497,10 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>64926</v>
+        <v>45347</v>
       </c>
       <c r="T14" t="n">
-        <v>15435.473</v>
+        <v>14468.754</v>
       </c>
       <c r="U14" t="n">
         <v>52500</v>
@@ -1571,13 +1571,19 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>62494</v>
+        <v>47292</v>
       </c>
       <c r="T15" t="n">
-        <v>15934.069</v>
+        <v>14615.9345</v>
       </c>
       <c r="U15" t="n">
         <v>75000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2988.007433333334</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.447192755792639</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>
@@ -1644,11 +1650,8 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S16" t="n">
-        <v>65765</v>
-      </c>
       <c r="T16" t="n">
-        <v>16001.6455</v>
+        <v>15642.9465</v>
       </c>
       <c r="U16" t="n">
         <v>75000</v>
@@ -1718,11 +1721,8 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S17" t="n">
-        <v>45248</v>
-      </c>
       <c r="T17" t="n">
-        <v>16435.614</v>
+        <v>15864.0115</v>
       </c>
       <c r="U17" t="n">
         <v>75000</v>
@@ -1792,11 +1792,8 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S18" t="n">
-        <v>17275</v>
-      </c>
       <c r="T18" t="n">
-        <v>17178.1825</v>
+        <v>16275.092</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
@@ -1867,7 +1864,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16939.003</v>
+        <v>16265.2175</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
@@ -1938,7 +1935,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>16685.8825</v>
+        <v>15390.046</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
@@ -2009,7 +2006,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>15197.4365</v>
+        <v>13874.261</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
@@ -2080,7 +2077,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>13342.395</v>
+        <v>11951.5345</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
@@ -2100,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="C23" t="n">
         <v>1.61610447761194</v>
@@ -2151,10 +2148,10 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9716.890500000001</v>
+        <v>9041.0965</v>
       </c>
       <c r="U23" t="n">
-        <v>75000</v>
+        <v>74000</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>
@@ -2171,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="C24" t="n">
         <v>1.61610447761194</v>
@@ -2222,10 +2219,10 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6391.799999999999</v>
+        <v>6150.5125</v>
       </c>
       <c r="U24" t="n">
-        <v>75000</v>
+        <v>71000</v>
       </c>
       <c r="X24" t="n">
         <v>10000</v>
@@ -2242,7 +2239,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="C25" t="n">
         <v>1.61610447761194</v>
@@ -2293,10 +2290,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5848.197</v>
+        <v>5731.305</v>
       </c>
       <c r="U25" t="n">
-        <v>72500</v>
+        <v>67500</v>
       </c>
       <c r="X25" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1580,10 +1580,10 @@
         <v>75000</v>
       </c>
       <c r="V15" t="n">
-        <v>2988.007433333334</v>
+        <v>3259.174822222222</v>
       </c>
       <c r="W15" t="n">
-        <v>8.447192755792639</v>
+        <v>8.095961032197602</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
         <v>1.61610447761194</v>
@@ -579,7 +579,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J2" t="n">
         <v>1.602133486700881</v>
@@ -609,16 +609,16 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>33061</v>
+        <v>33975</v>
       </c>
       <c r="T2" t="n">
-        <v>5005.48337366473</v>
+        <v>5801.188</v>
       </c>
       <c r="U2" t="n">
-        <v>42500</v>
+        <v>75000</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y2" t="n">
         <v>2.3081</v>
@@ -683,10 +683,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>31828</v>
+        <v>32265</v>
       </c>
       <c r="T3" t="n">
-        <v>4922.298456099087</v>
+        <v>5641.719000000001</v>
       </c>
       <c r="U3" t="n">
         <v>22500</v>
@@ -757,10 +757,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>30574</v>
+        <v>31121</v>
       </c>
       <c r="T4" t="n">
-        <v>4850.625419333438</v>
+        <v>5541.0945</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -831,10 +831,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>29643</v>
+        <v>30363</v>
       </c>
       <c r="T5" t="n">
-        <v>4797.274898040722</v>
+        <v>5516.280000000001</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -905,10 +905,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>29848</v>
+        <v>32040</v>
       </c>
       <c r="T6" t="n">
-        <v>4859.095012476347</v>
+        <v>5497.001</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -970,7 +970,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>30796</v>
+        <v>32872</v>
       </c>
       <c r="T7" t="n">
-        <v>4960.889853826959</v>
+        <v>5761.397999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>31613</v>
+        <v>33186</v>
       </c>
       <c r="T8" t="n">
-        <v>5211.449593293681</v>
+        <v>6103.384</v>
       </c>
       <c r="U8" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>34939</v>
+        <v>35580</v>
       </c>
       <c r="T9" t="n">
-        <v>6049.649550323782</v>
+        <v>6908.593</v>
       </c>
       <c r="U9" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1201,13 +1201,19 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>41934</v>
+        <v>25946</v>
       </c>
       <c r="T10" t="n">
-        <v>8417.127547097272</v>
+        <v>8421.428500000002</v>
       </c>
       <c r="U10" t="n">
         <v>42500</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3744.989005555556</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.42150469907479</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1274,11 +1280,8 @@
       <c r="R11" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S11" t="n">
-        <v>43152</v>
-      </c>
       <c r="T11" t="n">
-        <v>13902.175</v>
+        <v>14998.9355</v>
       </c>
       <c r="U11" t="n">
         <v>42500</v>
@@ -1348,17 +1351,14 @@
       <c r="R12" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S12" t="n">
-        <v>44379</v>
-      </c>
       <c r="T12" t="n">
-        <v>15210.828</v>
+        <v>14970.028</v>
       </c>
       <c r="U12" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
       <c r="X12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>2.3081</v>
@@ -1422,17 +1422,14 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S13" t="n">
-        <v>45163</v>
-      </c>
       <c r="T13" t="n">
-        <v>15097.205</v>
+        <v>15231.207</v>
       </c>
       <c r="U13" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
       <c r="X13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>2.3081</v>
@@ -1496,17 +1493,14 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S14" t="n">
-        <v>45347</v>
-      </c>
       <c r="T14" t="n">
-        <v>14468.754</v>
+        <v>15435.473</v>
       </c>
       <c r="U14" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
       <c r="X14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>2.3081</v>
@@ -1570,20 +1564,11 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>47292</v>
-      </c>
       <c r="T15" t="n">
-        <v>14615.9345</v>
+        <v>15934.069</v>
       </c>
       <c r="U15" t="n">
         <v>75000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3259.174822222222</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8.095961032197602</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>
@@ -1651,7 +1636,7 @@
         <v>6.1814</v>
       </c>
       <c r="T16" t="n">
-        <v>15642.9465</v>
+        <v>16001.6455</v>
       </c>
       <c r="U16" t="n">
         <v>75000</v>
@@ -1722,7 +1707,7 @@
         <v>6.1814</v>
       </c>
       <c r="T17" t="n">
-        <v>15864.0115</v>
+        <v>16435.614</v>
       </c>
       <c r="U17" t="n">
         <v>75000</v>
@@ -1793,7 +1778,7 @@
         <v>6.1814</v>
       </c>
       <c r="T18" t="n">
-        <v>16275.092</v>
+        <v>17178.1825</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
@@ -1864,7 +1849,7 @@
         <v>6.1814</v>
       </c>
       <c r="T19" t="n">
-        <v>16265.2175</v>
+        <v>16939.003</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
@@ -1935,7 +1920,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>15390.046</v>
+        <v>16685.8825</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
@@ -2006,7 +1991,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>13874.261</v>
+        <v>15197.4365</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
@@ -2077,7 +2062,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>11951.5345</v>
+        <v>13342.395</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
@@ -2097,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C23" t="n">
         <v>1.61610447761194</v>
@@ -2148,10 +2133,10 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9041.0965</v>
+        <v>9716.890500000001</v>
       </c>
       <c r="U23" t="n">
-        <v>74000</v>
+        <v>75000</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>
@@ -2168,7 +2153,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="C24" t="n">
         <v>1.61610447761194</v>
@@ -2219,10 +2204,10 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6150.5125</v>
+        <v>6391.799999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>71000</v>
+        <v>75000</v>
       </c>
       <c r="X24" t="n">
         <v>10000</v>
@@ -2239,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="C25" t="n">
         <v>1.61610447761194</v>
@@ -2260,7 +2245,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J25" t="n">
         <v>1.602133486700881</v>
@@ -2290,10 +2275,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5731.305</v>
+        <v>5848.197</v>
       </c>
       <c r="U25" t="n">
-        <v>67500</v>
+        <v>65000</v>
       </c>
       <c r="X25" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1201,7 +1201,7 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>25946</v>
+        <v>41595</v>
       </c>
       <c r="T10" t="n">
         <v>8421.428500000002</v>
@@ -1213,7 +1213,7 @@
         <v>3744.989005555556</v>
       </c>
       <c r="W10" t="n">
-        <v>11.42150469907479</v>
+        <v>7.800254750516115</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1209,12 +1209,6 @@
       <c r="U10" t="n">
         <v>42500</v>
       </c>
-      <c r="V10" t="n">
-        <v>3744.989005555556</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.800254750516115</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
@@ -1280,6 +1274,9 @@
       <c r="R11" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S11" t="n">
+        <v>45256</v>
+      </c>
       <c r="T11" t="n">
         <v>14998.9355</v>
       </c>
@@ -1351,6 +1348,9 @@
       <c r="R12" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S12" t="n">
+        <v>46730</v>
+      </c>
       <c r="T12" t="n">
         <v>14970.028</v>
       </c>
@@ -1422,6 +1422,9 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S13" t="n">
+        <v>46144</v>
+      </c>
       <c r="T13" t="n">
         <v>15231.207</v>
       </c>
@@ -1493,6 +1496,9 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S14" t="n">
+        <v>45993</v>
+      </c>
       <c r="T14" t="n">
         <v>15435.473</v>
       </c>
@@ -1564,11 +1570,20 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>30946</v>
+      </c>
       <c r="T15" t="n">
         <v>15934.069</v>
       </c>
       <c r="U15" t="n">
         <v>75000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2710.616322222222</v>
+      </c>
+      <c r="W15" t="n">
+        <v>15.97933108694185</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1580,10 +1580,10 @@
         <v>75000</v>
       </c>
       <c r="V15" t="n">
-        <v>2710.616322222222</v>
+        <v>3208.767838888889</v>
       </c>
       <c r="W15" t="n">
-        <v>15.97933108694185</v>
+        <v>13.98870459430378</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
         <v>1.61610447761194</v>
@@ -609,13 +609,13 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>33975</v>
+        <v>36728</v>
       </c>
       <c r="T2" t="n">
-        <v>5801.188</v>
+        <v>5799.800999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>75000</v>
+        <v>66500</v>
       </c>
       <c r="X2" t="n">
         <v>10000</v>
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="C3" t="n">
         <v>1.61610447761194</v>
@@ -653,7 +653,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J3" t="n">
         <v>1.602133486700881</v>
@@ -674,7 +674,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>32265</v>
+        <v>35269</v>
       </c>
       <c r="T3" t="n">
-        <v>5641.719000000001</v>
+        <v>5649.136500000001</v>
       </c>
       <c r="U3" t="n">
-        <v>22500</v>
+        <v>63500</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y3" t="n">
         <v>2.3081</v>
@@ -748,7 +748,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>31121</v>
+        <v>33348</v>
       </c>
       <c r="T4" t="n">
-        <v>5541.0945</v>
+        <v>5554.8325</v>
       </c>
       <c r="U4" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>30363</v>
+        <v>31700</v>
       </c>
       <c r="T5" t="n">
-        <v>5516.280000000001</v>
+        <v>5481.98</v>
       </c>
       <c r="U5" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>32040</v>
+        <v>30762</v>
       </c>
       <c r="T6" t="n">
-        <v>5497.001</v>
+        <v>5456.8815</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -970,7 +970,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>32872</v>
+        <v>30953</v>
       </c>
       <c r="T7" t="n">
-        <v>5761.397999999999</v>
+        <v>5512.395</v>
       </c>
       <c r="U7" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>33186</v>
+        <v>31330</v>
       </c>
       <c r="T8" t="n">
-        <v>6103.384</v>
+        <v>5765.477227722772</v>
       </c>
       <c r="U8" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>35580</v>
+        <v>32595</v>
       </c>
       <c r="T9" t="n">
-        <v>6908.593</v>
+        <v>6519.4465</v>
       </c>
       <c r="U9" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1201,13 +1201,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>41595</v>
+        <v>36208</v>
       </c>
       <c r="T10" t="n">
-        <v>8421.428500000002</v>
+        <v>7901.5895</v>
       </c>
       <c r="U10" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1275,13 +1275,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>45256</v>
+        <v>39069</v>
       </c>
       <c r="T11" t="n">
-        <v>14998.9355</v>
+        <v>13052.0005</v>
       </c>
       <c r="U11" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>46730</v>
+        <v>39884</v>
       </c>
       <c r="T12" t="n">
-        <v>14970.028</v>
+        <v>14886.7985</v>
       </c>
       <c r="U12" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>46144</v>
+        <v>39218</v>
       </c>
       <c r="T13" t="n">
-        <v>15231.207</v>
+        <v>14810.005</v>
       </c>
       <c r="U13" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>6.1814</v>
       </c>
       <c r="S14" t="n">
-        <v>45993</v>
+        <v>38683</v>
       </c>
       <c r="T14" t="n">
-        <v>15435.473</v>
+        <v>14699.3385</v>
       </c>
       <c r="U14" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C15" t="n">
         <v>1.61610447761194</v>
@@ -1541,7 +1541,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I15" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J15" t="n">
         <v>1.602133486700881</v>
@@ -1571,19 +1571,13 @@
         <v>6.1814</v>
       </c>
       <c r="S15" t="n">
-        <v>30946</v>
+        <v>40878</v>
       </c>
       <c r="T15" t="n">
-        <v>15934.069</v>
+        <v>15357.636</v>
       </c>
       <c r="U15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3208.767838888889</v>
-      </c>
-      <c r="W15" t="n">
-        <v>13.98870459430378</v>
+        <v>52500</v>
       </c>
       <c r="X15" t="n">
         <v>10000</v>
@@ -1650,8 +1644,11 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S16" t="n">
+        <v>41508</v>
+      </c>
       <c r="T16" t="n">
-        <v>16001.6455</v>
+        <v>15432.207</v>
       </c>
       <c r="U16" t="n">
         <v>75000</v>
@@ -1721,8 +1718,11 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S17" t="n">
+        <v>40766</v>
+      </c>
       <c r="T17" t="n">
-        <v>16435.614</v>
+        <v>15338.9075</v>
       </c>
       <c r="U17" t="n">
         <v>75000</v>
@@ -1792,8 +1792,11 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S18" t="n">
+        <v>38994</v>
+      </c>
       <c r="T18" t="n">
-        <v>17178.1825</v>
+        <v>15792.80217625723</v>
       </c>
       <c r="U18" t="n">
         <v>75000</v>
@@ -1863,11 +1866,20 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S19" t="n">
+        <v>36246</v>
+      </c>
       <c r="T19" t="n">
-        <v>16939.003</v>
+        <v>15557.50171551809</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>8357.577825000002</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-2.485794135445751</v>
       </c>
       <c r="X19" t="n">
         <v>10000</v>
@@ -1935,7 +1947,7 @@
         <v>6.1814</v>
       </c>
       <c r="T20" t="n">
-        <v>16685.8825</v>
+        <v>15152.49877462994</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
@@ -2006,7 +2018,7 @@
         <v>6.1814</v>
       </c>
       <c r="T21" t="n">
-        <v>15197.4365</v>
+        <v>13812.90902852661</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
@@ -2077,7 +2089,7 @@
         <v>6.1814</v>
       </c>
       <c r="T22" t="n">
-        <v>13342.395</v>
+        <v>12007.84432898735</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
@@ -2148,7 +2160,7 @@
         <v>6.1814</v>
       </c>
       <c r="T23" t="n">
-        <v>9716.890500000001</v>
+        <v>9523.143</v>
       </c>
       <c r="U23" t="n">
         <v>75000</v>
@@ -2168,7 +2180,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="C24" t="n">
         <v>1.61610447761194</v>
@@ -2219,10 +2231,10 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6391.799999999999</v>
+        <v>6375.7855</v>
       </c>
       <c r="U24" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="X24" t="n">
         <v>10000</v>
@@ -2239,7 +2251,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C25" t="n">
         <v>1.61610447761194</v>
@@ -2290,10 +2302,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5848.197</v>
+        <v>5494.996500000001</v>
       </c>
       <c r="U25" t="n">
-        <v>65000</v>
+        <v>52500</v>
       </c>
       <c r="X25" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1875,12 +1875,6 @@
       <c r="U19" t="n">
         <v>75000</v>
       </c>
-      <c r="V19" t="n">
-        <v>8357.577825000002</v>
-      </c>
-      <c r="W19" t="n">
-        <v>-2.485794135445751</v>
-      </c>
       <c r="X19" t="n">
         <v>10000</v>
       </c>
@@ -1946,11 +1940,20 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S20" t="n">
+        <v>15680</v>
+      </c>
       <c r="T20" t="n">
         <v>15152.49877462994</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>8357.577825000002</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-416.9174194876674</v>
       </c>
       <c r="X20" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1867,7 +1867,7 @@
         <v>6.1814</v>
       </c>
       <c r="S19" t="n">
-        <v>36246</v>
+        <v>39323</v>
       </c>
       <c r="T19" t="n">
         <v>15557.50171551809</v>
@@ -1941,7 +1941,7 @@
         <v>6.1814</v>
       </c>
       <c r="S20" t="n">
-        <v>15680</v>
+        <v>41039</v>
       </c>
       <c r="T20" t="n">
         <v>15152.49877462994</v>
@@ -1950,10 +1950,10 @@
         <v>75000</v>
       </c>
       <c r="V20" t="n">
-        <v>8357.577825000002</v>
+        <v>3791.519680555556</v>
       </c>
       <c r="W20" t="n">
-        <v>-416.9174194876674</v>
+        <v>8.354565014618991</v>
       </c>
       <c r="X20" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1949,12 +1949,6 @@
       <c r="U20" t="n">
         <v>75000</v>
       </c>
-      <c r="V20" t="n">
-        <v>3791.519680555556</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.354565014618991</v>
-      </c>
       <c r="X20" t="n">
         <v>10000</v>
       </c>
@@ -2020,11 +2014,20 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S21" t="n">
+        <v>15333</v>
+      </c>
       <c r="T21" t="n">
         <v>13812.90902852661</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3791.519680555556</v>
+      </c>
+      <c r="W21" t="n">
+        <v>81.49823648130068</v>
       </c>
       <c r="X21" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -2024,10 +2024,10 @@
         <v>75000</v>
       </c>
       <c r="V21" t="n">
-        <v>3791.519680555556</v>
+        <v>4035.471680555554</v>
       </c>
       <c r="W21" t="n">
-        <v>81.49823648130068</v>
+        <v>69.70580359160844</v>
       </c>
       <c r="X21" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -2015,19 +2015,13 @@
         <v>6.1814</v>
       </c>
       <c r="S21" t="n">
-        <v>15333</v>
+        <v>35648</v>
       </c>
       <c r="T21" t="n">
         <v>13812.90902852661</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4035.471680555554</v>
-      </c>
-      <c r="W21" t="n">
-        <v>69.70580359160844</v>
       </c>
       <c r="X21" t="n">
         <v>10000</v>
@@ -2094,11 +2088,20 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S22" t="n">
+        <v>15253</v>
+      </c>
       <c r="T22" t="n">
         <v>12007.84432898735</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3714.82371111111</v>
+      </c>
+      <c r="W22" t="n">
+        <v>41.88663699159111</v>
       </c>
       <c r="X22" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -2015,7 +2015,7 @@
         <v>6.1814</v>
       </c>
       <c r="S21" t="n">
-        <v>35648</v>
+        <v>38646</v>
       </c>
       <c r="T21" t="n">
         <v>13812.90902852661</v>
@@ -2089,19 +2089,13 @@
         <v>6.1814</v>
       </c>
       <c r="S22" t="n">
-        <v>15253</v>
+        <v>38253</v>
       </c>
       <c r="T22" t="n">
         <v>12007.84432898735</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3714.82371111111</v>
-      </c>
-      <c r="W22" t="n">
-        <v>41.88663699159111</v>
       </c>
       <c r="X22" t="n">
         <v>10000</v>
@@ -2168,6 +2162,9 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S23" t="n">
+        <v>38679</v>
+      </c>
       <c r="T23" t="n">
         <v>9523.143</v>
       </c>
@@ -2239,11 +2236,20 @@
       <c r="R24" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S24" t="n">
+        <v>38098</v>
+      </c>
       <c r="T24" t="n">
         <v>6375.7855</v>
       </c>
       <c r="U24" t="n">
         <v>72000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3166.905916666667</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.356324842185151</v>
       </c>
       <c r="X24" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
         <v>1.61610447761194</v>
@@ -579,7 +579,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="n">
         <v>1.602133486700881</v>
@@ -600,7 +600,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>36728</v>
+        <v>34468</v>
       </c>
       <c r="T2" t="n">
-        <v>5799.800999999999</v>
+        <v>5345.119500000001</v>
       </c>
       <c r="U2" t="n">
-        <v>66500</v>
+        <v>22500</v>
       </c>
       <c r="X2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>2.3081</v>
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
         <v>1.61610447761194</v>
@@ -653,7 +653,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="n">
         <v>1.602133486700881</v>
@@ -674,7 +674,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>35269</v>
+        <v>32829</v>
       </c>
       <c r="T3" t="n">
-        <v>5649.136500000001</v>
+        <v>5206.159000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>63500</v>
+        <v>22500</v>
       </c>
       <c r="X3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>2.3081</v>
@@ -748,7 +748,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>33348</v>
+        <v>31904</v>
       </c>
       <c r="T4" t="n">
-        <v>5554.8325</v>
+        <v>5135.557000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>31700</v>
+        <v>30639</v>
       </c>
       <c r="T5" t="n">
-        <v>5481.98</v>
+        <v>5020.333500000001</v>
       </c>
       <c r="U5" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>30762</v>
+        <v>26439</v>
       </c>
       <c r="T6" t="n">
-        <v>5456.8815</v>
+        <v>5000.597</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -979,10 +979,10 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>30953</v>
+        <v>29942</v>
       </c>
       <c r="T7" t="n">
-        <v>5512.395</v>
+        <v>5159.224</v>
       </c>
       <c r="U7" t="n">
         <v>22500</v>
@@ -1053,10 +1053,10 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>31330</v>
+        <v>29316</v>
       </c>
       <c r="T8" t="n">
-        <v>5765.477227722772</v>
+        <v>5913.0995</v>
       </c>
       <c r="U8" t="n">
         <v>22500</v>
@@ -1127,10 +1127,10 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>32595</v>
+        <v>30129</v>
       </c>
       <c r="T9" t="n">
-        <v>6519.4465</v>
+        <v>6556.798500000001</v>
       </c>
       <c r="U9" t="n">
         <v>22500</v>
@@ -1201,10 +1201,10 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>36208</v>
+        <v>32400</v>
       </c>
       <c r="T10" t="n">
-        <v>7901.5895</v>
+        <v>7870.904999999999</v>
       </c>
       <c r="U10" t="n">
         <v>22500</v>
@@ -1266,7 +1266,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1275,13 +1275,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>39069</v>
+        <v>30006</v>
       </c>
       <c r="T11" t="n">
-        <v>13052.0005</v>
+        <v>13169.898</v>
       </c>
       <c r="U11" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1349,13 +1349,19 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>39884</v>
+        <v>12410</v>
       </c>
       <c r="T12" t="n">
-        <v>14886.7985</v>
+        <v>15125.579</v>
       </c>
       <c r="U12" t="n">
-        <v>32500</v>
+        <v>22500</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2682.60295</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-37.71508553671352</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1414,7 +1420,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1422,14 +1428,11 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S13" t="n">
-        <v>39218</v>
-      </c>
       <c r="T13" t="n">
-        <v>14810.005</v>
+        <v>14795.5535</v>
       </c>
       <c r="U13" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1488,7 +1491,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1496,14 +1499,11 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S14" t="n">
-        <v>38683</v>
-      </c>
       <c r="T14" t="n">
-        <v>14699.3385</v>
+        <v>15027.4215</v>
       </c>
       <c r="U14" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1570,17 +1570,14 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>40878</v>
-      </c>
       <c r="T15" t="n">
-        <v>15357.636</v>
+        <v>15238.5275</v>
       </c>
       <c r="U15" t="n">
-        <v>52500</v>
+        <v>22500</v>
       </c>
       <c r="X15" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>2.3081</v>
@@ -1594,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C16" t="n">
         <v>1.61610447761194</v>
@@ -1615,7 +1612,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I16" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J16" t="n">
         <v>1.602133486700881</v>
@@ -1636,7 +1633,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1644,17 +1641,14 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S16" t="n">
-        <v>41508</v>
-      </c>
       <c r="T16" t="n">
-        <v>15432.207</v>
+        <v>15218.588</v>
       </c>
       <c r="U16" t="n">
-        <v>75000</v>
+        <v>22500</v>
       </c>
       <c r="X16" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>2.3081</v>
@@ -1668,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C17" t="n">
         <v>1.61610447761194</v>
@@ -1689,7 +1683,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I17" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J17" t="n">
         <v>1.602133486700881</v>
@@ -1710,7 +1704,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1718,17 +1712,14 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S17" t="n">
-        <v>40766</v>
-      </c>
       <c r="T17" t="n">
-        <v>15338.9075</v>
+        <v>15079.778</v>
       </c>
       <c r="U17" t="n">
-        <v>75000</v>
+        <v>22500</v>
       </c>
       <c r="X17" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>2.3081</v>
@@ -1742,7 +1733,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C18" t="n">
         <v>1.61610447761194</v>
@@ -1763,7 +1754,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J18" t="n">
         <v>1.602133486700881</v>
@@ -1792,14 +1783,11 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S18" t="n">
-        <v>38994</v>
-      </c>
       <c r="T18" t="n">
-        <v>15792.80217625723</v>
+        <v>15600.9735</v>
       </c>
       <c r="U18" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
       <c r="X18" t="n">
         <v>10000</v>
@@ -1866,11 +1854,8 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S19" t="n">
-        <v>39323</v>
-      </c>
       <c r="T19" t="n">
-        <v>15557.50171551809</v>
+        <v>15471.0605</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
@@ -1940,11 +1925,8 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S20" t="n">
-        <v>41039</v>
-      </c>
       <c r="T20" t="n">
-        <v>15152.49877462994</v>
+        <v>15033.3155</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
@@ -2014,11 +1996,8 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S21" t="n">
-        <v>38646</v>
-      </c>
       <c r="T21" t="n">
-        <v>13812.90902852661</v>
+        <v>13476.9705</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
@@ -2088,11 +2067,8 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S22" t="n">
-        <v>38253</v>
-      </c>
       <c r="T22" t="n">
-        <v>12007.84432898735</v>
+        <v>11646.733</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
@@ -2112,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C23" t="n">
         <v>1.61610447761194</v>
@@ -2133,7 +2109,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I23" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J23" t="n">
         <v>1.602133486700881</v>
@@ -2162,14 +2138,11 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S23" t="n">
-        <v>38679</v>
-      </c>
       <c r="T23" t="n">
-        <v>9523.143</v>
+        <v>9235.5095</v>
       </c>
       <c r="U23" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>
@@ -2186,7 +2159,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>22000</v>
+        <v>12500</v>
       </c>
       <c r="C24" t="n">
         <v>1.61610447761194</v>
@@ -2207,7 +2180,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I24" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J24" t="n">
         <v>1.602133486700881</v>
@@ -2228,7 +2201,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2236,23 +2209,14 @@
       <c r="R24" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S24" t="n">
-        <v>38098</v>
-      </c>
       <c r="T24" t="n">
-        <v>6375.7855</v>
+        <v>6356.336</v>
       </c>
       <c r="U24" t="n">
-        <v>72000</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3166.905916666667</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8.356324842185151</v>
+        <v>22500</v>
       </c>
       <c r="X24" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>2.3081</v>
@@ -2308,7 +2272,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2317,13 +2281,13 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5494.996500000001</v>
+        <v>5313.4375</v>
       </c>
       <c r="U25" t="n">
-        <v>52500</v>
+        <v>22500</v>
       </c>
       <c r="X25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>2.3081</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -1275,7 +1275,7 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>30006</v>
+        <v>32621</v>
       </c>
       <c r="T11" t="n">
         <v>13169.898</v>
@@ -1349,19 +1349,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>12410</v>
+        <v>33187</v>
       </c>
       <c r="T12" t="n">
         <v>15125.579</v>
       </c>
       <c r="U12" t="n">
         <v>22500</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2682.60295</v>
-      </c>
-      <c r="W12" t="n">
-        <v>-37.71508553671352</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1428,6 +1422,9 @@
       <c r="R13" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S13" t="n">
+        <v>32997</v>
+      </c>
       <c r="T13" t="n">
         <v>14795.5535</v>
       </c>
@@ -1499,6 +1496,9 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S14" t="n">
+        <v>34647</v>
+      </c>
       <c r="T14" t="n">
         <v>15027.4215</v>
       </c>
@@ -1570,6 +1570,9 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S15" t="n">
+        <v>35793</v>
+      </c>
       <c r="T15" t="n">
         <v>15238.5275</v>
       </c>
@@ -1641,6 +1644,9 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S16" t="n">
+        <v>37060</v>
+      </c>
       <c r="T16" t="n">
         <v>15218.588</v>
       </c>
@@ -1712,6 +1718,9 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S17" t="n">
+        <v>37376</v>
+      </c>
       <c r="T17" t="n">
         <v>15079.778</v>
       </c>
@@ -1783,6 +1792,9 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S18" t="n">
+        <v>37480</v>
+      </c>
       <c r="T18" t="n">
         <v>15600.9735</v>
       </c>
@@ -1854,6 +1866,9 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S19" t="n">
+        <v>40256</v>
+      </c>
       <c r="T19" t="n">
         <v>15471.0605</v>
       </c>
@@ -1925,6 +1940,9 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S20" t="n">
+        <v>42234</v>
+      </c>
       <c r="T20" t="n">
         <v>15033.3155</v>
       </c>
@@ -1996,6 +2014,9 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S21" t="n">
+        <v>40306</v>
+      </c>
       <c r="T21" t="n">
         <v>13476.9705</v>
       </c>
@@ -2067,6 +2088,9 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S22" t="n">
+        <v>40825</v>
+      </c>
       <c r="T22" t="n">
         <v>11646.733</v>
       </c>
@@ -2138,11 +2162,20 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
+      <c r="S23" t="n">
+        <v>41147</v>
+      </c>
       <c r="T23" t="n">
         <v>9235.5095</v>
       </c>
       <c r="U23" t="n">
         <v>52500</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3927.092180555555</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7.757045406664108</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>

--- a/current_rate.xlsx
+++ b/current_rate.xlsx
@@ -609,10 +609,10 @@
         <v>6.1814</v>
       </c>
       <c r="S2" t="n">
-        <v>34468</v>
+        <v>36512</v>
       </c>
       <c r="T2" t="n">
-        <v>5345.119500000001</v>
+        <v>5300.240519268225</v>
       </c>
       <c r="U2" t="n">
         <v>22500</v>
@@ -683,10 +683,10 @@
         <v>6.1814</v>
       </c>
       <c r="S3" t="n">
-        <v>32829</v>
+        <v>36934</v>
       </c>
       <c r="T3" t="n">
-        <v>5206.159000000001</v>
+        <v>5231.744084870154</v>
       </c>
       <c r="U3" t="n">
         <v>22500</v>
@@ -757,10 +757,10 @@
         <v>6.1814</v>
       </c>
       <c r="S4" t="n">
-        <v>31904</v>
+        <v>33332</v>
       </c>
       <c r="T4" t="n">
-        <v>5135.557000000001</v>
+        <v>5172.964514112086</v>
       </c>
       <c r="U4" t="n">
         <v>22500</v>
@@ -831,10 +831,10 @@
         <v>6.1814</v>
       </c>
       <c r="S5" t="n">
-        <v>30639</v>
+        <v>31733</v>
       </c>
       <c r="T5" t="n">
-        <v>5020.333500000001</v>
+        <v>5075.946323680449</v>
       </c>
       <c r="U5" t="n">
         <v>22500</v>
@@ -905,10 +905,10 @@
         <v>6.1814</v>
       </c>
       <c r="S6" t="n">
-        <v>26439</v>
+        <v>32493</v>
       </c>
       <c r="T6" t="n">
-        <v>5000.597</v>
+        <v>5154.323713302019</v>
       </c>
       <c r="U6" t="n">
         <v>22500</v>
@@ -970,7 +970,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>6.1814</v>
       </c>
       <c r="S7" t="n">
-        <v>29942</v>
+        <v>39285</v>
       </c>
       <c r="T7" t="n">
-        <v>5159.224</v>
+        <v>5316.20017362459</v>
       </c>
       <c r="U7" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>6.1814</v>
       </c>
       <c r="S8" t="n">
-        <v>29316</v>
+        <v>37768</v>
       </c>
       <c r="T8" t="n">
-        <v>5913.0995</v>
+        <v>6026.937022946369</v>
       </c>
       <c r="U8" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>6.1814</v>
       </c>
       <c r="S9" t="n">
-        <v>30129</v>
+        <v>37333</v>
       </c>
       <c r="T9" t="n">
-        <v>6556.798500000001</v>
+        <v>7195.731826323759</v>
       </c>
       <c r="U9" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1201,13 +1201,13 @@
         <v>6.1814</v>
       </c>
       <c r="S10" t="n">
-        <v>32400</v>
+        <v>43902</v>
       </c>
       <c r="T10" t="n">
-        <v>7870.904999999999</v>
+        <v>8933.125360504302</v>
       </c>
       <c r="U10" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1275,13 +1275,13 @@
         <v>6.1814</v>
       </c>
       <c r="S11" t="n">
-        <v>32621</v>
+        <v>48587</v>
       </c>
       <c r="T11" t="n">
-        <v>13169.898</v>
+        <v>14753.13129895921</v>
       </c>
       <c r="U11" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>6.1814</v>
       </c>
       <c r="S12" t="n">
-        <v>33187</v>
+        <v>49096</v>
       </c>
       <c r="T12" t="n">
-        <v>15125.579</v>
+        <v>15709.74841693614</v>
       </c>
       <c r="U12" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1423,13 +1423,19 @@
         <v>6.1814</v>
       </c>
       <c r="S13" t="n">
-        <v>32997</v>
+        <v>50494</v>
       </c>
       <c r="T13" t="n">
-        <v>14795.5535</v>
+        <v>15288.48267560654</v>
       </c>
       <c r="U13" t="n">
-        <v>22500</v>
+        <v>42500</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5697.369141666667</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.16167065674505</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1488,7 +1494,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1496,14 +1502,11 @@
       <c r="R14" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S14" t="n">
-        <v>34647</v>
-      </c>
       <c r="T14" t="n">
-        <v>15027.4215</v>
+        <v>15654.78597751751</v>
       </c>
       <c r="U14" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1562,7 +1565,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1570,17 +1573,14 @@
       <c r="R15" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S15" t="n">
-        <v>35793</v>
-      </c>
       <c r="T15" t="n">
-        <v>15238.5275</v>
+        <v>15297.69344373566</v>
       </c>
       <c r="U15" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y15" t="n">
         <v>2.3081</v>
@@ -1636,7 +1636,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1644,17 +1644,14 @@
       <c r="R16" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S16" t="n">
-        <v>37060</v>
-      </c>
       <c r="T16" t="n">
-        <v>15218.588</v>
+        <v>15177.95255693069</v>
       </c>
       <c r="U16" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y16" t="n">
         <v>2.3081</v>
@@ -1710,7 +1707,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1718,17 +1715,14 @@
       <c r="R17" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S17" t="n">
-        <v>37376</v>
-      </c>
       <c r="T17" t="n">
-        <v>15079.778</v>
+        <v>15377.06720297029</v>
       </c>
       <c r="U17" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y17" t="n">
         <v>2.3081</v>
@@ -1742,7 +1736,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C18" t="n">
         <v>1.61610447761194</v>
@@ -1763,7 +1757,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J18" t="n">
         <v>1.602133486700881</v>
@@ -1792,14 +1786,11 @@
       <c r="R18" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S18" t="n">
-        <v>37480</v>
-      </c>
       <c r="T18" t="n">
-        <v>15600.9735</v>
+        <v>15674.89670937682</v>
       </c>
       <c r="U18" t="n">
-        <v>52500</v>
+        <v>75000</v>
       </c>
       <c r="X18" t="n">
         <v>10000</v>
@@ -1866,11 +1857,8 @@
       <c r="R19" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S19" t="n">
-        <v>40256</v>
-      </c>
       <c r="T19" t="n">
-        <v>15471.0605</v>
+        <v>15609.91385653271</v>
       </c>
       <c r="U19" t="n">
         <v>75000</v>
@@ -1940,11 +1928,8 @@
       <c r="R20" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S20" t="n">
-        <v>42234</v>
-      </c>
       <c r="T20" t="n">
-        <v>15033.3155</v>
+        <v>14847.04867986798</v>
       </c>
       <c r="U20" t="n">
         <v>75000</v>
@@ -2014,11 +1999,8 @@
       <c r="R21" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S21" t="n">
-        <v>40306</v>
-      </c>
       <c r="T21" t="n">
-        <v>13476.9705</v>
+        <v>13458.84194331198</v>
       </c>
       <c r="U21" t="n">
         <v>75000</v>
@@ -2088,11 +2070,8 @@
       <c r="R22" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S22" t="n">
-        <v>40825</v>
-      </c>
       <c r="T22" t="n">
-        <v>11646.733</v>
+        <v>11737.29170064065</v>
       </c>
       <c r="U22" t="n">
         <v>75000</v>
@@ -2112,7 +2091,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C23" t="n">
         <v>1.61610447761194</v>
@@ -2133,7 +2112,7 @@
         <v>3.282722795887347</v>
       </c>
       <c r="I23" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J23" t="n">
         <v>1.602133486700881</v>
@@ -2162,20 +2141,11 @@
       <c r="R23" t="n">
         <v>6.1814</v>
       </c>
-      <c r="S23" t="n">
-        <v>41147</v>
-      </c>
       <c r="T23" t="n">
-        <v>9235.5095</v>
+        <v>8464.465734808773</v>
       </c>
       <c r="U23" t="n">
-        <v>52500</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3927.092180555555</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7.757045406664108</v>
+        <v>75000</v>
       </c>
       <c r="X23" t="n">
         <v>10000</v>
@@ -2234,7 +2204,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2243,13 +2213,13 @@
         <v>6.1814</v>
       </c>
       <c r="T24" t="n">
-        <v>6356.336</v>
+        <v>6243.212205882352</v>
       </c>
       <c r="U24" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y24" t="n">
         <v>2.3081</v>
@@ -2305,7 +2275,7 @@
         <v>3.305936425515303</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2314,10 +2284,10 @@
         <v>6.1814</v>
       </c>
       <c r="T25" t="n">
-        <v>5313.4375</v>
+        <v>5717.465749999999</v>
       </c>
       <c r="U25" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
